--- a/cmip6/models/ukesm1-0-ll/cmip6_mohc_ukesm1-0-ll_atmoschem.xlsx
+++ b/cmip6/models/ukesm1-0-ll/cmip6_mohc_ukesm1-0-ll_atmoschem.xlsx
@@ -8,21 +8,22 @@
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
-    <sheet name="1. Key Properties" sheetId="2" r:id="rId2"/>
-    <sheet name="2. Grid" sheetId="3" r:id="rId3"/>
-    <sheet name="3. Transport" sheetId="4" r:id="rId4"/>
-    <sheet name="4. Emissions Concentrations" sheetId="5" r:id="rId5"/>
-    <sheet name="5. Gas Phase Chemistry" sheetId="6" r:id="rId6"/>
-    <sheet name="6. Stratospheric Heterogeneous " sheetId="7" r:id="rId7"/>
-    <sheet name="7. Tropospheric Heterogeneous C" sheetId="8" r:id="rId8"/>
-    <sheet name="8. Photo Chemistry" sheetId="9" r:id="rId9"/>
+    <sheet name="1. Parties &amp; Citations" sheetId="2" r:id="rId2"/>
+    <sheet name="2. Key Properties" sheetId="3" r:id="rId3"/>
+    <sheet name="3. Grid" sheetId="4" r:id="rId4"/>
+    <sheet name="4. Transport" sheetId="5" r:id="rId5"/>
+    <sheet name="5. Emissions Concentrations" sheetId="6" r:id="rId6"/>
+    <sheet name="6. Gas Phase Chemistry" sheetId="7" r:id="rId7"/>
+    <sheet name="7. Stratospheric Heterogeneous " sheetId="8" r:id="rId8"/>
+    <sheet name="8. Tropospheric Heterogeneous C" sheetId="9" r:id="rId9"/>
+    <sheet name="9. Photo Chemistry" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="496">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -54,28 +55,37 @@
     <t>Sub-Topics</t>
   </si>
   <si>
-    <t>1. Key Properties</t>
-  </si>
-  <si>
-    <t>2. Grid</t>
-  </si>
-  <si>
-    <t>3. Transport</t>
-  </si>
-  <si>
-    <t>4. Emissions Concentrations</t>
-  </si>
-  <si>
-    <t>5. Gas Phase Chemistry</t>
-  </si>
-  <si>
-    <t>6. Stratospheric Heterogeneous Chemistry</t>
-  </si>
-  <si>
-    <t>7. Tropospheric Heterogeneous Chemistry</t>
-  </si>
-  <si>
-    <t>8. Photo Chemistry</t>
+    <t>1. Parties &amp; Citations</t>
+  </si>
+  <si>
+    <t>2. Key Properties</t>
+  </si>
+  <si>
+    <t>3. Grid</t>
+  </si>
+  <si>
+    <t>4. Transport</t>
+  </si>
+  <si>
+    <t>5. Emissions Concentrations</t>
+  </si>
+  <si>
+    <t>6. Gas Phase Chemistry</t>
+  </si>
+  <si>
+    <t>7. Stratospheric Heterogeneous Chemistry</t>
+  </si>
+  <si>
+    <t>8. Tropospheric Heterogeneous Chemistry</t>
+  </si>
+  <si>
+    <t>9. Photo Chemistry</t>
+  </si>
+  <si>
+    <t>How To Use</t>
+  </si>
+  <si>
+    <t>https://es-doc.org/how-to-use-model-document-spreadsheets</t>
   </si>
   <si>
     <t>Further Info</t>
@@ -87,34 +97,61 @@
     <t>Specialization Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>Parties &amp; Citations</t>
   </si>
   <si>
     <t>1.1</t>
   </si>
   <si>
+    <t>Parties</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>Mnemonic references to responsible parties</t>
+  </si>
+  <si>
+    <t>NOTE: Multiple entries are allowed, please insert a new row per entry.</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Citations</t>
+  </si>
+  <si>
+    <t>Mnemonic references to citations</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
     <t>Key Properties</t>
   </si>
   <si>
     <t>Key properties of the atmospheric chemistry</t>
   </si>
   <si>
-    <t>1.1.1 *</t>
+    <t>2.1.1 *</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>STRING</t>
-  </si>
-  <si>
     <t>Name of atmoschem model code</t>
   </si>
   <si>
     <t>cmip6.atmoschem.key_properties.name</t>
   </si>
   <si>
-    <t>1.1.2 *</t>
+    <t>2.1.2 *</t>
   </si>
   <si>
     <t>Keywords</t>
@@ -129,7 +166,7 @@
     <t>NOTE: Please enter a comma seperated list</t>
   </si>
   <si>
-    <t>1.1.3 *</t>
+    <t>2.1.3 *</t>
   </si>
   <si>
     <t>Overview</t>
@@ -144,7 +181,7 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
-    <t>1.1.4 *</t>
+    <t>2.1.4 *</t>
   </si>
   <si>
     <t>Chemistry Scheme Scope</t>
@@ -159,9 +196,6 @@
     <t>cmip6.atmoschem.key_properties.chemistry_scheme_scope</t>
   </si>
   <si>
-    <t>NOTE: Multiple entries are allowed, please insert a new row per entry.</t>
-  </si>
-  <si>
     <t>Troposhere</t>
   </si>
   <si>
@@ -177,7 +211,7 @@
     <t>Other: document to the right</t>
   </si>
   <si>
-    <t>1.1.5 *</t>
+    <t>2.1.5 *</t>
   </si>
   <si>
     <t>Basic Approximations</t>
@@ -189,7 +223,7 @@
     <t>cmip6.atmoschem.key_properties.basic_approximations</t>
   </si>
   <si>
-    <t>1.1.6 *</t>
+    <t>2.1.6 *</t>
   </si>
   <si>
     <t>Prognostic Variables Form</t>
@@ -204,7 +238,7 @@
     <t>3D mass/mixing ratio for gas</t>
   </si>
   <si>
-    <t>1.1.7 *</t>
+    <t>2.1.7 *</t>
   </si>
   <si>
     <t>Number Of Tracers</t>
@@ -219,7 +253,7 @@
     <t>cmip6.atmoschem.key_properties.number_of_tracers</t>
   </si>
   <si>
-    <t>1.1.8 *</t>
+    <t>2.1.8 *</t>
   </si>
   <si>
     <t>Family Approach</t>
@@ -234,7 +268,7 @@
     <t>cmip6.atmoschem.key_properties.family_approach</t>
   </si>
   <si>
-    <t>1.1.9 *</t>
+    <t>2.1.9 *</t>
   </si>
   <si>
     <t>Coupling With Chemical Reactivity</t>
@@ -246,7 +280,7 @@
     <t>cmip6.atmoschem.key_properties.coupling_with_chemical_reactivity</t>
   </si>
   <si>
-    <t>1.2</t>
+    <t>2.2</t>
   </si>
   <si>
     <t>Key Properties --&gt; Software Properties</t>
@@ -255,7 +289,7 @@
     <t>Software properties of aerosol code</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.1 </t>
+    <t xml:space="preserve">2.2.1 </t>
   </si>
   <si>
     <t>Repository</t>
@@ -267,7 +301,7 @@
     <t>cmip6.atmoschem.key_properties.software_properties.repository</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.2 </t>
+    <t xml:space="preserve">2.2.2 </t>
   </si>
   <si>
     <t>Code Version</t>
@@ -279,7 +313,7 @@
     <t>cmip6.atmoschem.key_properties.software_properties.code_version</t>
   </si>
   <si>
-    <t xml:space="preserve">1.2.3 </t>
+    <t xml:space="preserve">2.2.3 </t>
   </si>
   <si>
     <t>Code Languages</t>
@@ -291,7 +325,7 @@
     <t>cmip6.atmoschem.key_properties.software_properties.code_languages</t>
   </si>
   <si>
-    <t>1.3</t>
+    <t>2.3</t>
   </si>
   <si>
     <t>Key Properties --&gt; Timestep Framework</t>
@@ -300,7 +334,7 @@
     <t>Timestepping in the atmospheric chemistry model</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.1 </t>
+    <t xml:space="preserve">2.3.1 </t>
   </si>
   <si>
     <t>Overview of timestepping in the atmospheric chemistry model in atmoschem model.</t>
@@ -309,7 +343,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.overview</t>
   </si>
   <si>
-    <t>1.3.2 *</t>
+    <t>2.3.2 *</t>
   </si>
   <si>
     <t>Method</t>
@@ -327,7 +361,7 @@
     <t>Integrated</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.3 </t>
+    <t xml:space="preserve">2.3.3 </t>
   </si>
   <si>
     <t>Split Operator Advection Timestep</t>
@@ -339,7 +373,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_advection_timestep</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.4 </t>
+    <t xml:space="preserve">2.3.4 </t>
   </si>
   <si>
     <t>Split Operator Physical Timestep</t>
@@ -351,7 +385,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_physical_timestep</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.5 </t>
+    <t xml:space="preserve">2.3.5 </t>
   </si>
   <si>
     <t>Split Operator Chemistry Timestep</t>
@@ -363,7 +397,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_chemistry_timestep</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3.6 </t>
+    <t xml:space="preserve">2.3.6 </t>
   </si>
   <si>
     <t>Split Operator Alternate Order</t>
@@ -375,7 +409,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_alternate_order</t>
   </si>
   <si>
-    <t>1.3.7 *</t>
+    <t>2.3.7 *</t>
   </si>
   <si>
     <t>Integrated Timestep</t>
@@ -387,7 +421,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.integrated_timestep</t>
   </si>
   <si>
-    <t>1.3.8 *</t>
+    <t>2.3.8 *</t>
   </si>
   <si>
     <t>Integrated Scheme Type</t>
@@ -423,13 +457,13 @@
     <t>Rosenbrock</t>
   </si>
   <si>
-    <t>1.4</t>
+    <t>2.4</t>
   </si>
   <si>
     <t>Key Properties --&gt; Timestep Framework --&gt; Split Operator Order</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.1 </t>
+    <t xml:space="preserve">2.4.1 </t>
   </si>
   <si>
     <t>Turbulence</t>
@@ -441,7 +475,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.turbulence</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.2 </t>
+    <t xml:space="preserve">2.4.2 </t>
   </si>
   <si>
     <t>Convection</t>
@@ -453,7 +487,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.convection</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.3 </t>
+    <t xml:space="preserve">2.4.3 </t>
   </si>
   <si>
     <t>Precipitation</t>
@@ -465,7 +499,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.precipitation</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.4 </t>
+    <t xml:space="preserve">2.4.4 </t>
   </si>
   <si>
     <t>Emissions</t>
@@ -477,7 +511,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.emissions</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.5 </t>
+    <t xml:space="preserve">2.4.5 </t>
   </si>
   <si>
     <t>Deposition</t>
@@ -489,7 +523,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.deposition</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.6 </t>
+    <t xml:space="preserve">2.4.6 </t>
   </si>
   <si>
     <t>Gas Phase Chemistry</t>
@@ -501,7 +535,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.gas_phase_chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.7 </t>
+    <t xml:space="preserve">2.4.7 </t>
   </si>
   <si>
     <t>Tropospheric Heterogeneous Phase Chemistry</t>
@@ -513,7 +547,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.tropospheric_heterogeneous_phase_chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.8 </t>
+    <t xml:space="preserve">2.4.8 </t>
   </si>
   <si>
     <t>Stratospheric Heterogeneous Phase Chemistry</t>
@@ -525,7 +559,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.stratospheric_heterogeneous_phase_chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.9 </t>
+    <t xml:space="preserve">2.4.9 </t>
   </si>
   <si>
     <t>Photo Chemistry</t>
@@ -537,7 +571,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.photo_chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4.10 </t>
+    <t xml:space="preserve">2.4.10 </t>
   </si>
   <si>
     <t>Aerosols</t>
@@ -549,7 +583,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.aerosols</t>
   </si>
   <si>
-    <t>1.5</t>
+    <t>2.5</t>
   </si>
   <si>
     <t>Key Properties --&gt; Tuning Applied</t>
@@ -558,7 +592,7 @@
     <t>Tuning methodology for atmospheric chemistry component</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.1 </t>
+    <t xml:space="preserve">2.5.1 </t>
   </si>
   <si>
     <t>Overview of tuning methodology for atmospheric chemistry component in atmoschem model.</t>
@@ -567,7 +601,7 @@
     <t>cmip6.atmoschem.key_properties.tuning_applied.overview</t>
   </si>
   <si>
-    <t>1.5.2 *</t>
+    <t>2.5.2 *</t>
   </si>
   <si>
     <t>Description</t>
@@ -579,7 +613,7 @@
     <t>cmip6.atmoschem.key_properties.tuning_applied.description</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.3 </t>
+    <t xml:space="preserve">2.5.3 </t>
   </si>
   <si>
     <t>Global Mean Metrics Used</t>
@@ -591,7 +625,7 @@
     <t>cmip6.atmoschem.key_properties.tuning_applied.global_mean_metrics_used</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.4 </t>
+    <t xml:space="preserve">2.5.4 </t>
   </si>
   <si>
     <t>Regional Metrics Used</t>
@@ -603,7 +637,7 @@
     <t>cmip6.atmoschem.key_properties.tuning_applied.regional_metrics_used</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5.5 </t>
+    <t xml:space="preserve">2.5.5 </t>
   </si>
   <si>
     <t>Trend Metrics Used</t>
@@ -615,7 +649,7 @@
     <t>cmip6.atmoschem.key_properties.tuning_applied.trend_metrics_used</t>
   </si>
   <si>
-    <t>2.1</t>
+    <t>3.1</t>
   </si>
   <si>
     <t>Grid</t>
@@ -624,7 +658,7 @@
     <t>Atmospheric chemistry grid</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1.1 </t>
+    <t xml:space="preserve">3.1.1 </t>
   </si>
   <si>
     <t>Name of grid in atmoschem model.</t>
@@ -633,7 +667,7 @@
     <t>cmip6.atmoschem.grid.name</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1.2 </t>
+    <t xml:space="preserve">3.1.2 </t>
   </si>
   <si>
     <t>Overview of grid in atmoschem model.</t>
@@ -642,7 +676,7 @@
     <t>cmip6.atmoschem.grid.overview</t>
   </si>
   <si>
-    <t>2.1.3 *</t>
+    <t>3.1.3 *</t>
   </si>
   <si>
     <t>Matches Atmosphere Grid</t>
@@ -654,7 +688,7 @@
     <t>cmip6.atmoschem.grid.matches_atmosphere_grid</t>
   </si>
   <si>
-    <t>2.2</t>
+    <t>3.2</t>
   </si>
   <si>
     <t>Grid --&gt; Resolution</t>
@@ -663,7 +697,7 @@
     <t>Resolution in the atmospheric chemistry grid</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.1 </t>
+    <t xml:space="preserve">3.2.1 </t>
   </si>
   <si>
     <t>Overview of resolution in the atmospheric chemistry grid in atmoschem model.</t>
@@ -672,7 +706,7 @@
     <t>cmip6.atmoschem.grid.resolution.overview</t>
   </si>
   <si>
-    <t>2.2.2 *</t>
+    <t>3.2.2 *</t>
   </si>
   <si>
     <t>This is a string usually used by the modelling group to describe the resolution of this grid, e.g. ORCA025, N512L180, T512L70 etc.</t>
@@ -681,7 +715,7 @@
     <t>cmip6.atmoschem.grid.resolution.name</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.3 </t>
+    <t xml:space="preserve">3.2.3 </t>
   </si>
   <si>
     <t>Canonical Horizontal Resolution</t>
@@ -693,7 +727,7 @@
     <t>cmip6.atmoschem.grid.resolution.canonical_horizontal_resolution</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.4 </t>
+    <t xml:space="preserve">3.2.4 </t>
   </si>
   <si>
     <t>Number Of Horizontal Gridpoints</t>
@@ -705,7 +739,7 @@
     <t>cmip6.atmoschem.grid.resolution.number_of_horizontal_gridpoints</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.5 </t>
+    <t xml:space="preserve">3.2.5 </t>
   </si>
   <si>
     <t>Number Of Vertical Levels</t>
@@ -717,7 +751,7 @@
     <t>cmip6.atmoschem.grid.resolution.number_of_vertical_levels</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.6 </t>
+    <t xml:space="preserve">3.2.6 </t>
   </si>
   <si>
     <t>Is Adaptive Grid</t>
@@ -729,7 +763,7 @@
     <t>cmip6.atmoschem.grid.resolution.is_adaptive_grid</t>
   </si>
   <si>
-    <t>3.1</t>
+    <t>4.1</t>
   </si>
   <si>
     <t>Transport</t>
@@ -738,7 +772,7 @@
     <t>Atmospheric chemistry transport</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.1 </t>
+    <t xml:space="preserve">4.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the transport in atmoschem model.</t>
@@ -747,7 +781,7 @@
     <t>cmip6.atmoschem.transport.name</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.2 </t>
+    <t xml:space="preserve">4.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry transport in atmoschem model.</t>
@@ -756,7 +790,7 @@
     <t>cmip6.atmoschem.transport.overview</t>
   </si>
   <si>
-    <t>3.1.3 *</t>
+    <t>4.1.3 *</t>
   </si>
   <si>
     <t>Use Atmospheric Transport</t>
@@ -768,7 +802,7 @@
     <t>cmip6.atmoschem.transport.use_atmospheric_transport</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.4 </t>
+    <t xml:space="preserve">4.1.4 </t>
   </si>
   <si>
     <t>Transport Details</t>
@@ -780,7 +814,7 @@
     <t>cmip6.atmoschem.transport.transport_details</t>
   </si>
   <si>
-    <t>4.1</t>
+    <t>5.1</t>
   </si>
   <si>
     <t>Emissions Concentrations</t>
@@ -789,7 +823,7 @@
     <t>Atmospheric chemistry emissions</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.1 </t>
+    <t xml:space="preserve">5.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the emissions concentrations in atmoschem model.</t>
@@ -798,7 +832,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.name</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.2 </t>
+    <t xml:space="preserve">5.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry emissions in atmoschem model.</t>
@@ -807,13 +841,13 @@
     <t>cmip6.atmoschem.emissions_concentrations.overview</t>
   </si>
   <si>
-    <t>4.2</t>
+    <t>5.2</t>
   </si>
   <si>
     <t>Emissions Concentrations --&gt; Surface Emissions</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.1 </t>
+    <t xml:space="preserve">5.2.1 </t>
   </si>
   <si>
     <t>Overview of  in atmoschem model.</t>
@@ -822,7 +856,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.2 </t>
+    <t xml:space="preserve">5.2.2 </t>
   </si>
   <si>
     <t>Sources</t>
@@ -849,7 +883,7 @@
     <t>Biomass burning</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.3 </t>
+    <t xml:space="preserve">5.2.3 </t>
   </si>
   <si>
     <t>Methods used to define chemical species emitted directly into model layers above the surface (several methods allowed because the different species may not use the same method).</t>
@@ -870,7 +904,7 @@
     <t>Interactive</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.4 </t>
+    <t xml:space="preserve">5.2.4 </t>
   </si>
   <si>
     <t>Prescribed Climatology Emitted Species</t>
@@ -882,7 +916,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.prescribed_climatology_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.5 </t>
+    <t xml:space="preserve">5.2.5 </t>
   </si>
   <si>
     <t>Prescribed Spatially Uniform Emitted Species</t>
@@ -894,7 +928,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.prescribed_spatially_uniform_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.6 </t>
+    <t xml:space="preserve">5.2.6 </t>
   </si>
   <si>
     <t>Interactive Emitted Species</t>
@@ -906,7 +940,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.interactive_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.7 </t>
+    <t xml:space="preserve">5.2.7 </t>
   </si>
   <si>
     <t>Other Emitted Species</t>
@@ -918,7 +952,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.other_emitted_species</t>
   </si>
   <si>
-    <t>4.3</t>
+    <t>5.3</t>
   </si>
   <si>
     <t>Emissions Concentrations --&gt; Atmospheric Emissions</t>
@@ -927,7 +961,7 @@
     <t>TO DO</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3.1 </t>
+    <t xml:space="preserve">5.3.1 </t>
   </si>
   <si>
     <t>Overview of to do in atmoschem model.</t>
@@ -936,7 +970,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3.2 </t>
+    <t xml:space="preserve">5.3.2 </t>
   </si>
   <si>
     <t>Sources of chemical species emitted in the atmosphere that are taken into account in the emissions scheme.</t>
@@ -954,7 +988,7 @@
     <t>Volcanos</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3.3 </t>
+    <t xml:space="preserve">5.3.3 </t>
   </si>
   <si>
     <t>Methods used to define the chemical species emitted in the atmosphere (several methods allowed because the different species may not use the same method).</t>
@@ -963,7 +997,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.method</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3.4 </t>
+    <t xml:space="preserve">5.3.4 </t>
   </si>
   <si>
     <t>List of chemical species emitted in the atmosphere and prescribed via a climatology (E.g. CO (monthly), C2H6 (constant))</t>
@@ -972,7 +1006,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.prescribed_climatology_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3.5 </t>
+    <t xml:space="preserve">5.3.5 </t>
   </si>
   <si>
     <t>List of chemical species emitted in the atmosphere and prescribed as spatially uniform</t>
@@ -981,7 +1015,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.prescribed_spatially_uniform_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3.6 </t>
+    <t xml:space="preserve">5.3.6 </t>
   </si>
   <si>
     <t>List of chemical species emitted in the atmosphere and specified via an interactive method</t>
@@ -990,7 +1024,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.interactive_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">4.3.7 </t>
+    <t xml:space="preserve">5.3.7 </t>
   </si>
   <si>
     <t>List of chemical species emitted in the atmosphere and specified via an "other method"</t>
@@ -999,19 +1033,19 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.other_emitted_species</t>
   </si>
   <si>
-    <t>4.4</t>
+    <t>5.4</t>
   </si>
   <si>
     <t>Emissions Concentrations --&gt; Concentrations</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4.1 </t>
+    <t xml:space="preserve">5.4.1 </t>
   </si>
   <si>
     <t>cmip6.atmoschem.emissions_concentrations.concentrations.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4.2 </t>
+    <t xml:space="preserve">5.4.2 </t>
   </si>
   <si>
     <t>Prescribed Lower Boundary</t>
@@ -1023,7 +1057,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.concentrations.prescribed_lower_boundary</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4.3 </t>
+    <t xml:space="preserve">5.4.3 </t>
   </si>
   <si>
     <t>Prescribed Upper Boundary</t>
@@ -1035,13 +1069,13 @@
     <t>cmip6.atmoschem.emissions_concentrations.concentrations.prescribed_upper_boundary</t>
   </si>
   <si>
-    <t>5.1</t>
+    <t>6.1</t>
   </si>
   <si>
     <t>Atmospheric gas phase chemistry transport</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.1 </t>
+    <t xml:space="preserve">6.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the gas phase chemistry in atmoschem model.</t>
@@ -1050,7 +1084,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.name</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.2 </t>
+    <t xml:space="preserve">6.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric gas phase chemistry transport in atmoschem model.</t>
@@ -1059,7 +1093,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.3 </t>
+    <t xml:space="preserve">6.1.3 </t>
   </si>
   <si>
     <t>Species</t>
@@ -1098,7 +1132,7 @@
     <t>H2O</t>
   </si>
   <si>
-    <t>5.1.4 *</t>
+    <t>6.1.4 *</t>
   </si>
   <si>
     <t>Number Of Bimolecular Reactions</t>
@@ -1110,7 +1144,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_bimolecular_reactions</t>
   </si>
   <si>
-    <t>5.1.5 *</t>
+    <t>6.1.5 *</t>
   </si>
   <si>
     <t>Number Of Termolecular Reactions</t>
@@ -1122,7 +1156,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_termolecular_reactions</t>
   </si>
   <si>
-    <t>5.1.6 *</t>
+    <t>6.1.6 *</t>
   </si>
   <si>
     <t>Number Of Tropospheric Heterogenous Reactions</t>
@@ -1134,7 +1168,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_tropospheric_heterogenous_reactions</t>
   </si>
   <si>
-    <t>5.1.7 *</t>
+    <t>6.1.7 *</t>
   </si>
   <si>
     <t>Number Of Stratospheric Heterogenous Reactions</t>
@@ -1146,7 +1180,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_stratospheric_heterogenous_reactions</t>
   </si>
   <si>
-    <t>5.1.8 *</t>
+    <t>6.1.8 *</t>
   </si>
   <si>
     <t>Number Of Advected Species</t>
@@ -1158,7 +1192,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_advected_species</t>
   </si>
   <si>
-    <t>5.1.9 *</t>
+    <t>6.1.9 *</t>
   </si>
   <si>
     <t>Number Of Steady State Species</t>
@@ -1170,7 +1204,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_steady_state_species</t>
   </si>
   <si>
-    <t>5.1.10 *</t>
+    <t>6.1.10 *</t>
   </si>
   <si>
     <t>Interactive Dry Deposition</t>
@@ -1182,7 +1216,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.interactive_dry_deposition</t>
   </si>
   <si>
-    <t>5.1.11 *</t>
+    <t>6.1.11 *</t>
   </si>
   <si>
     <t>Wet Deposition</t>
@@ -1194,7 +1228,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.wet_deposition</t>
   </si>
   <si>
-    <t>5.1.12 *</t>
+    <t>6.1.12 *</t>
   </si>
   <si>
     <t>Wet Oxidation</t>
@@ -1206,7 +1240,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.wet_oxidation</t>
   </si>
   <si>
-    <t>6.1</t>
+    <t>7.1</t>
   </si>
   <si>
     <t>Stratospheric Heterogeneous Chemistry</t>
@@ -1215,7 +1249,7 @@
     <t>Atmospheric chemistry startospheric heterogeneous chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.1 </t>
+    <t xml:space="preserve">7.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the stratospheric heterogeneous chemistry in atmoschem model.</t>
@@ -1224,7 +1258,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.name</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.2 </t>
+    <t xml:space="preserve">7.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry startospheric heterogeneous chemistry in atmoschem model.</t>
@@ -1233,7 +1267,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.3 </t>
+    <t xml:space="preserve">7.1.3 </t>
   </si>
   <si>
     <t>Gas Phase Species</t>
@@ -1245,7 +1279,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.gas_phase_species</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.4 </t>
+    <t xml:space="preserve">7.1.4 </t>
   </si>
   <si>
     <t>Aerosol Species</t>
@@ -1272,7 +1306,7 @@
     <t>STS (supercooled ternary solution aerosol particule))</t>
   </si>
   <si>
-    <t>6.1.5 *</t>
+    <t>7.1.5 *</t>
   </si>
   <si>
     <t>The number of steady state species in the stratospheric heterogeneous chemistry scheme.</t>
@@ -1281,7 +1315,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.number_of_steady_state_species</t>
   </si>
   <si>
-    <t>6.1.6 *</t>
+    <t>7.1.6 *</t>
   </si>
   <si>
     <t>Sedimentation</t>
@@ -1293,7 +1327,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.sedimentation</t>
   </si>
   <si>
-    <t>6.1.7 *</t>
+    <t>7.1.7 *</t>
   </si>
   <si>
     <t>Coagulation</t>
@@ -1305,7 +1339,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.coagulation</t>
   </si>
   <si>
-    <t>7.1</t>
+    <t>8.1</t>
   </si>
   <si>
     <t>Tropospheric Heterogeneous Chemistry</t>
@@ -1314,7 +1348,7 @@
     <t>Atmospheric chemistry tropospheric heterogeneous chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.1 </t>
+    <t xml:space="preserve">8.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the tropospheric heterogeneous chemistry in atmoschem model.</t>
@@ -1323,7 +1357,7 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.name</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.2 </t>
+    <t xml:space="preserve">8.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry tropospheric heterogeneous chemistry in atmoschem model.</t>
@@ -1332,7 +1366,7 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.3 </t>
+    <t xml:space="preserve">8.1.3 </t>
   </si>
   <si>
     <t>List of gas phase species included in the tropospheric heterogeneous chemistry scheme.</t>
@@ -1341,7 +1375,7 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.gas_phase_species</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.4 </t>
+    <t xml:space="preserve">8.1.4 </t>
   </si>
   <si>
     <t>Aerosol species included in the tropospheric heterogeneous chemistry scheme.</t>
@@ -1374,7 +1408,7 @@
     <t>Particulate organic matter</t>
   </si>
   <si>
-    <t>7.1.5 *</t>
+    <t>8.1.5 *</t>
   </si>
   <si>
     <t>The number of steady state species in the tropospheric heterogeneous chemistry scheme.</t>
@@ -1383,13 +1417,13 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.number_of_steady_state_species</t>
   </si>
   <si>
-    <t>7.1.6 *</t>
+    <t>8.1.6 *</t>
   </si>
   <si>
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.interactive_dry_deposition</t>
   </si>
   <si>
-    <t>7.1.7 *</t>
+    <t>8.1.7 *</t>
   </si>
   <si>
     <t>Is coagulation is included in the tropospheric heterogeneous chemistry scheme or not?</t>
@@ -1398,13 +1432,13 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.coagulation</t>
   </si>
   <si>
-    <t>8.1</t>
+    <t>9.1</t>
   </si>
   <si>
     <t>Atmospheric chemistry photo chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1.1 </t>
+    <t xml:space="preserve">9.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the photo chemistry in atmoschem model.</t>
@@ -1413,7 +1447,7 @@
     <t>cmip6.atmoschem.photo_chemistry.name</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1.2 </t>
+    <t xml:space="preserve">9.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry photo chemistry in atmoschem model.</t>
@@ -1422,7 +1456,7 @@
     <t>cmip6.atmoschem.photo_chemistry.overview</t>
   </si>
   <si>
-    <t>8.1.3 *</t>
+    <t>9.1.3 *</t>
   </si>
   <si>
     <t>Number Of Reactions</t>
@@ -1434,7 +1468,7 @@
     <t>cmip6.atmoschem.photo_chemistry.number_of_reactions</t>
   </si>
   <si>
-    <t>8.2</t>
+    <t>9.2</t>
   </si>
   <si>
     <t>Photo Chemistry --&gt; Photolysis</t>
@@ -1443,7 +1477,7 @@
     <t>Photolysis scheme</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2.1 </t>
+    <t xml:space="preserve">9.2.1 </t>
   </si>
   <si>
     <t>Overview of photolysis scheme in atmoschem model.</t>
@@ -1452,7 +1486,7 @@
     <t>cmip6.atmoschem.photo_chemistry.photolysis.overview</t>
   </si>
   <si>
-    <t>8.2.2 *</t>
+    <t>9.2.2 *</t>
   </si>
   <si>
     <t>cmip6.atmoschem.photo_chemistry.photolysis.method</t>
@@ -1467,7 +1501,7 @@
     <t>Online</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2.3 </t>
+    <t xml:space="preserve">9.2.3 </t>
   </si>
   <si>
     <t>Environmental Conditions</t>
@@ -1483,7 +1517,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1525,9 +1559,8 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="24"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
@@ -1552,14 +1585,22 @@
       <family val="2"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <i/>
-      <sz val="10"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -1609,7 +1650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1626,10 +1667,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1641,11 +1679,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1941,7 +1985,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD19"/>
+  <dimension ref="A1:XFD21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2032,31 +2076,318 @@
         <v>17</v>
       </c>
     </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B18" r:id="rId1"/>
+    <hyperlink ref="B19" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="24" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" customHeight="1">
+      <c r="B2" s="13" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="24" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" customHeight="1">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="8" spans="1:3" ht="24" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1">
+      <c r="B10" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="178" customHeight="1">
+      <c r="B11" s="11"/>
+    </row>
+    <row r="13" spans="1:3" ht="24" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1">
+      <c r="A14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24" customHeight="1">
+      <c r="B15" s="11"/>
+    </row>
+    <row r="18" spans="1:29" ht="24" customHeight="1">
+      <c r="A18" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="24" customHeight="1">
+      <c r="B19" s="13" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="24" customHeight="1">
+      <c r="A21" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="24" customHeight="1">
+      <c r="A22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="24" customHeight="1">
+      <c r="B23" s="11"/>
+    </row>
+    <row r="25" spans="1:29" ht="24" customHeight="1">
+      <c r="A25" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="24" customHeight="1">
+      <c r="A26" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="24" customHeight="1">
+      <c r="B27" s="11"/>
+      <c r="AA27" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="AB27" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="AC27" s="5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="24" customHeight="1">
+      <c r="A29" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="24" customHeight="1">
+      <c r="A30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="24" customHeight="1">
+      <c r="B31" s="11"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
+      <formula1>AA27:AC27</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="11"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD167"/>
   <sheetViews>
@@ -2071,938 +2402,938 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>23</v>
+      <c r="A1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>24</v>
+      <c r="B2" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
+      <c r="A4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>31</v>
+      <c r="A8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>33</v>
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>34</v>
+      <c r="B10" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>36</v>
+      <c r="A13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>38</v>
+      <c r="A14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>39</v>
+      <c r="B15" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>41</v>
+      <c r="A18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="24" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>44</v>
+      <c r="A19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="24" customHeight="1">
-      <c r="B20" s="12" t="s">
-        <v>45</v>
+      <c r="B20" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="24" customHeight="1">
       <c r="B21" s="11"/>
       <c r="AA21" s="5" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="AB21" s="5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="AD21" s="5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="AF21" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>52</v>
+      <c r="A23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:32" ht="24" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>54</v>
+      <c r="A24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="24" customHeight="1">
       <c r="B25" s="11"/>
     </row>
     <row r="27" spans="1:32" ht="24" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>56</v>
+      <c r="A27" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:32" ht="24" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>58</v>
+      <c r="A28" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="24" customHeight="1">
-      <c r="B29" s="12" t="s">
-        <v>45</v>
+      <c r="B29" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="24" customHeight="1">
       <c r="B30" s="11"/>
       <c r="AA30" s="5" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="AB30" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:32" ht="24" customHeight="1">
-      <c r="A32" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>61</v>
+      <c r="A32" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>64</v>
+      <c r="A33" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="11"/>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
-      <c r="A36" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>66</v>
+      <c r="A36" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>69</v>
+      <c r="A37" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="B38" s="11"/>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
-      <c r="A40" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>71</v>
+      <c r="A40" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>73</v>
+      <c r="A41" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="B42" s="11"/>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
-      <c r="A45" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>75</v>
+      <c r="A45" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="B46" s="7" t="s">
-        <v>76</v>
+      <c r="B46" s="13" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="A48" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>78</v>
+      <c r="A48" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="A49" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>80</v>
+      <c r="A49" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="B50" s="11"/>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="A52" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>82</v>
+      <c r="A52" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
-      <c r="A53" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>84</v>
+      <c r="A53" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="B54" s="11"/>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
-      <c r="A56" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>86</v>
+      <c r="A56" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
-      <c r="A57" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>88</v>
+      <c r="A57" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
-      <c r="B58" s="12" t="s">
-        <v>34</v>
+      <c r="B58" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="B59" s="11"/>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
-      <c r="A62" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>90</v>
+      <c r="A62" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
-      <c r="B63" s="7" t="s">
-        <v>91</v>
+      <c r="B63" s="13" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:29" ht="24" customHeight="1">
-      <c r="A65" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>36</v>
+      <c r="A65" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:29" ht="24" customHeight="1">
-      <c r="A66" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>94</v>
+      <c r="A66" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:29" ht="24" customHeight="1">
       <c r="B67" s="11"/>
     </row>
     <row r="69" spans="1:29" ht="24" customHeight="1">
-      <c r="A69" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>96</v>
+      <c r="A69" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="24" customHeight="1">
-      <c r="A70" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>98</v>
+      <c r="A70" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="24" customHeight="1">
       <c r="B71" s="11"/>
       <c r="AA71" s="5" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="AB71" s="5" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="AC71" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:29" ht="24" customHeight="1">
-      <c r="A73" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>102</v>
+      <c r="A73" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:29" ht="24" customHeight="1">
-      <c r="A74" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>104</v>
+      <c r="A74" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="24" customHeight="1">
       <c r="B75" s="11"/>
     </row>
     <row r="77" spans="1:29" ht="24" customHeight="1">
-      <c r="A77" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>106</v>
+      <c r="A77" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:29" ht="24" customHeight="1">
-      <c r="A78" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>108</v>
+      <c r="A78" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:29" ht="24" customHeight="1">
       <c r="B79" s="11"/>
     </row>
     <row r="81" spans="1:35" ht="24" customHeight="1">
-      <c r="A81" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>110</v>
+      <c r="A81" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="82" spans="1:35" ht="24" customHeight="1">
-      <c r="A82" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>112</v>
+      <c r="A82" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="83" spans="1:35" ht="24" customHeight="1">
       <c r="B83" s="11"/>
     </row>
     <row r="85" spans="1:35" ht="24" customHeight="1">
-      <c r="A85" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>114</v>
+      <c r="A85" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="86" spans="1:35" ht="24" customHeight="1">
-      <c r="A86" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>116</v>
+      <c r="A86" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:35" ht="24" customHeight="1">
       <c r="B87" s="11"/>
     </row>
     <row r="89" spans="1:35" ht="24" customHeight="1">
-      <c r="A89" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>118</v>
+      <c r="A89" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="1:35" ht="24" customHeight="1">
-      <c r="A90" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>120</v>
+      <c r="A90" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="91" spans="1:35" ht="24" customHeight="1">
       <c r="B91" s="11"/>
     </row>
     <row r="93" spans="1:35" ht="24" customHeight="1">
-      <c r="A93" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>122</v>
+      <c r="A93" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="94" spans="1:35" ht="24" customHeight="1">
-      <c r="A94" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>124</v>
+      <c r="A94" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="95" spans="1:35" ht="24" customHeight="1">
       <c r="B95" s="11"/>
       <c r="AA95" s="5" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="AB95" s="5" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="AC95" s="5" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="AD95" s="5" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="AE95" s="5" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="AF95" s="5" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="AG95" s="5" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="AH95" s="5" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="AI95" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
-      <c r="A98" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>134</v>
+      <c r="A98" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="B99" s="7"/>
+      <c r="B99" s="13"/>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="A101" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>136</v>
+      <c r="A101" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
-      <c r="A102" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B102" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>138</v>
+      <c r="A102" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
       <c r="B103" s="11"/>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="A105" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>140</v>
+      <c r="A105" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
-      <c r="A106" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>142</v>
+      <c r="A106" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="B107" s="11"/>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="A109" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>144</v>
+      <c r="A109" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
-      <c r="A110" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>146</v>
+      <c r="A110" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="B111" s="11"/>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
-      <c r="A113" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>148</v>
+      <c r="A113" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
-      <c r="A114" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>150</v>
+      <c r="A114" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
       <c r="B115" s="11"/>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
-      <c r="A117" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>152</v>
+      <c r="A117" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
-      <c r="A118" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B118" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C118" s="10" t="s">
-        <v>154</v>
+      <c r="A118" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="B119" s="11"/>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="A121" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>156</v>
+      <c r="A121" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
-      <c r="A122" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B122" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>158</v>
+      <c r="A122" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="24" customHeight="1">
       <c r="B123" s="11"/>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="A125" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>160</v>
+      <c r="A125" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
-      <c r="A126" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B126" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>162</v>
+      <c r="A126" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="24" customHeight="1">
       <c r="B127" s="11"/>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
-      <c r="A129" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>164</v>
+      <c r="A129" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
-      <c r="A130" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B130" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>166</v>
+      <c r="A130" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
       <c r="B131" s="11"/>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
-      <c r="A133" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>168</v>
+      <c r="A133" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
-      <c r="A134" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>170</v>
+      <c r="A134" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
       <c r="B135" s="11"/>
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
-      <c r="A137" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>172</v>
+      <c r="A137" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
-      <c r="A138" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>174</v>
+      <c r="A138" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
       <c r="B139" s="11"/>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
-      <c r="A142" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>176</v>
+      <c r="A142" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
-      <c r="B143" s="7" t="s">
-        <v>177</v>
+      <c r="B143" s="13" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="24" customHeight="1">
-      <c r="A145" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>36</v>
+      <c r="A145" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="24" customHeight="1">
-      <c r="A146" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B146" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>180</v>
+      <c r="A146" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
       <c r="B147" s="11"/>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
-      <c r="A149" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>182</v>
+      <c r="A149" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="24" customHeight="1">
-      <c r="A150" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B150" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>184</v>
+      <c r="A150" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="24" customHeight="1">
-      <c r="B151" s="12" t="s">
-        <v>39</v>
+      <c r="B151" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="178" customHeight="1">
       <c r="B152" s="11"/>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
-      <c r="A154" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>186</v>
+      <c r="A154" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="24" customHeight="1">
-      <c r="A155" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B155" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C155" s="10" t="s">
-        <v>188</v>
+      <c r="A155" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
-      <c r="B156" s="12" t="s">
-        <v>34</v>
+      <c r="B156" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
       <c r="B157" s="11"/>
     </row>
     <row r="159" spans="1:3" ht="24" customHeight="1">
-      <c r="A159" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>190</v>
+      <c r="A159" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
-      <c r="A160" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B160" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C160" s="10" t="s">
-        <v>192</v>
+      <c r="A160" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
-      <c r="B161" s="12" t="s">
-        <v>34</v>
+      <c r="B161" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="24" customHeight="1">
       <c r="B162" s="11"/>
     </row>
     <row r="164" spans="1:3" ht="24" customHeight="1">
-      <c r="A164" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B164" s="8" t="s">
-        <v>194</v>
+      <c r="A164" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
-      <c r="A165" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B165" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C165" s="10" t="s">
-        <v>196</v>
+      <c r="A165" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="24" customHeight="1">
-      <c r="B166" s="12" t="s">
-        <v>34</v>
+      <c r="B166" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
@@ -3081,7 +3412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD43"/>
   <sheetViews>
@@ -3096,229 +3427,229 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>198</v>
+      <c r="A1" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>199</v>
+      <c r="B2" s="13" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
+      <c r="A4" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>202</v>
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>36</v>
+      <c r="A8" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>205</v>
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>39</v>
+      <c r="B10" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>207</v>
+      <c r="A13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>209</v>
+      <c r="A14" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="11"/>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>211</v>
+      <c r="A18" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="B19" s="7" t="s">
-        <v>212</v>
+      <c r="B19" s="13" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>36</v>
+      <c r="A21" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>215</v>
+      <c r="A22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="B23" s="11"/>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>26</v>
+      <c r="A25" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>218</v>
+      <c r="A26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="B27" s="11"/>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>220</v>
+      <c r="A29" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>222</v>
+      <c r="A30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="B31" s="11"/>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>224</v>
+      <c r="A33" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>226</v>
+      <c r="A34" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="B35" s="11"/>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>228</v>
+      <c r="A37" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>230</v>
+      <c r="A38" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="11"/>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>232</v>
+      <c r="A41" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>234</v>
+      <c r="A42" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
@@ -3343,7 +3674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD20"/>
   <sheetViews>
@@ -3358,111 +3689,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>236</v>
+      <c r="A1" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>237</v>
+      <c r="B2" s="13" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
+      <c r="A4" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>240</v>
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>36</v>
+      <c r="A8" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>243</v>
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>39</v>
+      <c r="B10" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>245</v>
+      <c r="A13" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>247</v>
+      <c r="A14" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="11"/>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>249</v>
+      <c r="A17" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>251</v>
+      <c r="A18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="B19" s="12" t="s">
-        <v>39</v>
+      <c r="B19" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="178" customHeight="1">
@@ -3478,7 +3809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD105"/>
   <sheetViews>
@@ -3493,606 +3824,606 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>253</v>
+      <c r="A1" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>254</v>
+      <c r="B2" s="13" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
+      <c r="A4" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>257</v>
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>36</v>
+      <c r="A8" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>260</v>
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>39</v>
+      <c r="B10" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>262</v>
+      <c r="A14" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="7"/>
+      <c r="B15" s="13"/>
     </row>
     <row r="17" spans="1:32" ht="24" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>36</v>
+      <c r="A17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>265</v>
+      <c r="A18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="24" customHeight="1">
       <c r="B19" s="11"/>
     </row>
     <row r="21" spans="1:32" ht="24" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>267</v>
+      <c r="A21" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>269</v>
+      <c r="A22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
-      <c r="B23" s="12" t="s">
-        <v>45</v>
+      <c r="B23" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:32" ht="24" customHeight="1">
       <c r="B24" s="11"/>
       <c r="AA24" s="5" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="AB24" s="5" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="AC24" s="5" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="AD24" s="5" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="AE24" s="5" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="AF24" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="24" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>96</v>
+      <c r="A26" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="24" customHeight="1">
-      <c r="A27" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>277</v>
+      <c r="A27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:32" ht="24" customHeight="1">
-      <c r="B28" s="12" t="s">
-        <v>45</v>
+      <c r="B28" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="24" customHeight="1">
       <c r="B29" s="11"/>
       <c r="AA29" s="5" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="AB29" s="5" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="AC29" s="5" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="AD29" s="5" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="AE29" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="24" customHeight="1">
-      <c r="A31" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>283</v>
+      <c r="A31" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="1:32" ht="24" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>285</v>
+      <c r="A32" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="B33" s="12" t="s">
-        <v>34</v>
+      <c r="B33" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="11"/>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
-      <c r="A36" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>287</v>
+      <c r="A36" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>289</v>
+      <c r="A37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="B38" s="12" t="s">
-        <v>34</v>
+      <c r="B38" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="11"/>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>291</v>
+      <c r="A41" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>293</v>
+      <c r="A42" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="B43" s="12" t="s">
-        <v>34</v>
+      <c r="B43" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="B44" s="11"/>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="A46" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>295</v>
+      <c r="A46" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="A47" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>297</v>
+      <c r="A47" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="B48" s="12" t="s">
-        <v>34</v>
+      <c r="B48" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
       <c r="B49" s="11"/>
     </row>
     <row r="52" spans="1:31" ht="24" customHeight="1">
-      <c r="A52" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>299</v>
+      <c r="A52" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="53" spans="1:31" ht="24" customHeight="1">
-      <c r="B53" s="7" t="s">
-        <v>300</v>
+      <c r="B53" s="13" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
-      <c r="A55" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>36</v>
+      <c r="A55" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1">
-      <c r="A56" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>303</v>
+      <c r="A56" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="57" spans="1:31" ht="24" customHeight="1">
       <c r="B57" s="11"/>
     </row>
     <row r="59" spans="1:31" ht="24" customHeight="1">
-      <c r="A59" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>267</v>
+      <c r="A59" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="60" spans="1:31" ht="24" customHeight="1">
-      <c r="A60" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>306</v>
+      <c r="A60" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="61" spans="1:31" ht="24" customHeight="1">
-      <c r="B61" s="12" t="s">
-        <v>45</v>
+      <c r="B61" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="B62" s="11"/>
       <c r="AA62" s="5" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="AB62" s="5" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="AC62" s="5" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="AD62" s="5" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="AE62" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
-      <c r="A64" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>96</v>
+      <c r="A64" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:31" ht="24" customHeight="1">
-      <c r="A65" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>312</v>
+      <c r="A65" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="66" spans="1:31" ht="24" customHeight="1">
-      <c r="B66" s="12" t="s">
-        <v>45</v>
+      <c r="B66" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:31" ht="24" customHeight="1">
       <c r="B67" s="11"/>
       <c r="AA67" s="5" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="AB67" s="5" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="AC67" s="5" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="AD67" s="5" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="AE67" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:31" ht="24" customHeight="1">
-      <c r="A69" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>283</v>
+      <c r="A69" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="70" spans="1:31" ht="24" customHeight="1">
-      <c r="A70" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>315</v>
+      <c r="A70" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="71" spans="1:31" ht="24" customHeight="1">
-      <c r="B71" s="12" t="s">
-        <v>34</v>
+      <c r="B71" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:31" ht="24" customHeight="1">
       <c r="B72" s="11"/>
     </row>
     <row r="74" spans="1:31" ht="24" customHeight="1">
-      <c r="A74" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>287</v>
+      <c r="A74" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="75" spans="1:31" ht="24" customHeight="1">
-      <c r="A75" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>318</v>
+      <c r="A75" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="76" spans="1:31" ht="24" customHeight="1">
-      <c r="B76" s="12" t="s">
-        <v>34</v>
+      <c r="B76" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:31" ht="24" customHeight="1">
       <c r="B77" s="11"/>
     </row>
     <row r="79" spans="1:31" ht="24" customHeight="1">
-      <c r="A79" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>291</v>
+      <c r="A79" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="80" spans="1:31" ht="24" customHeight="1">
-      <c r="A80" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>321</v>
+      <c r="A80" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="B81" s="12" t="s">
-        <v>34</v>
+      <c r="B81" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
       <c r="B82" s="11"/>
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
-      <c r="A84" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>295</v>
+      <c r="A84" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="A85" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>324</v>
+      <c r="A85" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="B86" s="12" t="s">
-        <v>34</v>
+      <c r="B86" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="B87" s="11"/>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>326</v>
+      <c r="A90" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="B91" s="7" t="s">
-        <v>300</v>
+      <c r="B91" s="13" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="A93" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>36</v>
+      <c r="A93" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
-      <c r="A94" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>328</v>
+      <c r="A94" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="B95" s="11"/>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
-      <c r="A97" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>330</v>
+      <c r="A97" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
-      <c r="A98" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>332</v>
+      <c r="A98" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="B99" s="12" t="s">
-        <v>34</v>
+      <c r="B99" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="B100" s="11"/>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
-      <c r="A102" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>334</v>
+      <c r="A102" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>336</v>
+      <c r="A103" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="B104" s="12" t="s">
-        <v>34</v>
+      <c r="B104" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
@@ -4117,7 +4448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD52"/>
   <sheetViews>
@@ -4132,317 +4463,317 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>156</v>
+      <c r="A1" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>338</v>
+      <c r="B2" s="13" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
+      <c r="A4" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>341</v>
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:36" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>36</v>
+      <c r="A8" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>344</v>
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>39</v>
+      <c r="B10" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:36" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:36" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>346</v>
+      <c r="A13" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>348</v>
+      <c r="A14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="24" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>45</v>
+      <c r="B15" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="24" customHeight="1">
       <c r="B16" s="11"/>
       <c r="AA16" s="5" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AD16" s="5" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AE16" s="5" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="AF16" s="5" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="AG16" s="5" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="AH16" s="5" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="AI16" s="5" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="AJ16" s="5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>359</v>
+      <c r="A18" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>361</v>
+      <c r="A19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
       <c r="B20" s="11"/>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>363</v>
+      <c r="A22" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
-      <c r="A23" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>365</v>
+      <c r="A23" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
       <c r="B24" s="11"/>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>367</v>
+      <c r="A26" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
-      <c r="A27" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>369</v>
+      <c r="A27" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="11"/>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>371</v>
+      <c r="A30" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
-      <c r="A31" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>373</v>
+      <c r="A31" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
       <c r="B32" s="11"/>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>375</v>
+      <c r="A34" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="A35" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>377</v>
+      <c r="A35" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="B36" s="11"/>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>379</v>
+      <c r="A38" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="A39" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>381</v>
+      <c r="A39" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="B40" s="11"/>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>383</v>
+      <c r="A42" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="A43" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>385</v>
+      <c r="A43" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="B44" s="11"/>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="A46" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>387</v>
+      <c r="A46" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="A47" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>389</v>
+      <c r="A47" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="B48" s="11"/>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
-      <c r="A50" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>391</v>
+      <c r="A50" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="A51" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>393</v>
+      <c r="A51" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
@@ -4485,7 +4816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD33"/>
   <sheetViews>
@@ -4500,206 +4831,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>395</v>
+      <c r="A1" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>396</v>
+      <c r="B2" s="13" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
+      <c r="A4" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>399</v>
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>36</v>
+      <c r="A8" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>402</v>
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>39</v>
+      <c r="B10" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>404</v>
+      <c r="A13" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>406</v>
+      <c r="A14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>45</v>
+      <c r="B15" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="24" customHeight="1">
       <c r="B16" s="11"/>
       <c r="AA16" s="5" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>408</v>
+      <c r="A18" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>410</v>
+      <c r="A19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
-      <c r="B20" s="12" t="s">
-        <v>45</v>
+      <c r="B20" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="B21" s="11"/>
       <c r="AA21" s="5" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="AB21" s="5" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="AD21" s="5" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>379</v>
+      <c r="A23" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>418</v>
+      <c r="A24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11"/>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>420</v>
+      <c r="A27" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>422</v>
+      <c r="A28" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
       <c r="B29" s="11"/>
     </row>
     <row r="31" spans="1:31" ht="24" customHeight="1">
-      <c r="A31" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>424</v>
+      <c r="A31" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="24" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>426</v>
+      <c r="A32" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="24" customHeight="1">
@@ -4727,7 +5058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD33"/>
   <sheetViews>
@@ -4742,212 +5073,212 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>428</v>
+      <c r="A1" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>429</v>
+      <c r="B2" s="13" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
+      <c r="A4" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>432</v>
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>36</v>
+      <c r="A8" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>435</v>
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>39</v>
+      <c r="B10" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>404</v>
+      <c r="A13" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>438</v>
+      <c r="A14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>34</v>
+      <c r="B15" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24" customHeight="1">
       <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:36" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>408</v>
+      <c r="A18" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="19" spans="1:36" ht="24" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>441</v>
+      <c r="A19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="24" customHeight="1">
-      <c r="B20" s="12" t="s">
-        <v>45</v>
+      <c r="B20" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:36" ht="24" customHeight="1">
       <c r="B21" s="11"/>
       <c r="AA21" s="5" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="AB21" s="5" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="AD21" s="5" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="AF21" s="5" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="AG21" s="5" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="AH21" s="5" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="AI21" s="5" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="AJ21" s="5" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="24" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>379</v>
+      <c r="A23" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:36" ht="24" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>452</v>
+      <c r="A24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="25" spans="1:36" ht="24" customHeight="1">
       <c r="B25" s="11"/>
     </row>
     <row r="27" spans="1:36" ht="24" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>383</v>
+      <c r="A27" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="1:36" ht="24" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>454</v>
+      <c r="A28" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:36" ht="24" customHeight="1">
       <c r="B29" s="11"/>
     </row>
     <row r="31" spans="1:36" ht="24" customHeight="1">
-      <c r="A31" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>424</v>
+      <c r="A31" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="32" spans="1:36" ht="24" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>457</v>
+      <c r="A32" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="24" customHeight="1">
@@ -4970,203 +5301,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
-    </row>
-    <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="11"/>
-    </row>
-    <row r="18" spans="1:29" ht="24" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="24" customHeight="1">
-      <c r="B19" s="7" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" ht="24" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" ht="24" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" ht="24" customHeight="1">
-      <c r="B23" s="11"/>
-    </row>
-    <row r="25" spans="1:29" ht="24" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" ht="24" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" ht="24" customHeight="1">
-      <c r="B27" s="11"/>
-      <c r="AA27" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="AB27" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="AC27" s="5" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" ht="24" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="24" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" ht="24" customHeight="1">
-      <c r="B31" s="11"/>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>AA27:AC27</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/cmip6/models/ukesm1-0-ll/cmip6_mohc_ukesm1-0-ll_atmoschem.xlsx
+++ b/cmip6/models/ukesm1-0-ll/cmip6_mohc_ukesm1-0-ll_atmoschem.xlsx
@@ -46,7 +46,7 @@
     <t>UKESM1-0-LL</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Atmospheric Chemistry</t>

--- a/cmip6/models/ukesm1-0-ll/cmip6_mohc_ukesm1-0-ll_atmoschem.xlsx
+++ b/cmip6/models/ukesm1-0-ll/cmip6_mohc_ukesm1-0-ll_atmoschem.xlsx
@@ -8,22 +8,22 @@
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
-    <sheet name="1. Parties &amp; Citations" sheetId="2" r:id="rId2"/>
-    <sheet name="2. Key Properties" sheetId="3" r:id="rId3"/>
-    <sheet name="3. Grid" sheetId="4" r:id="rId4"/>
-    <sheet name="4. Transport" sheetId="5" r:id="rId5"/>
-    <sheet name="5. Emissions Concentrations" sheetId="6" r:id="rId6"/>
-    <sheet name="6. Gas Phase Chemistry" sheetId="7" r:id="rId7"/>
-    <sheet name="7. Stratospheric Heterogeneous " sheetId="8" r:id="rId8"/>
-    <sheet name="8. Tropospheric Heterogeneous C" sheetId="9" r:id="rId9"/>
-    <sheet name="9. Photo Chemistry" sheetId="10" r:id="rId10"/>
+    <sheet name="Parties &amp; Citations" sheetId="2" r:id="rId2"/>
+    <sheet name="1. Key Properties" sheetId="3" r:id="rId3"/>
+    <sheet name="2. Grid" sheetId="4" r:id="rId4"/>
+    <sheet name="3. Transport" sheetId="5" r:id="rId5"/>
+    <sheet name="4. Emissions Concentrations" sheetId="6" r:id="rId6"/>
+    <sheet name="5. Gas Phase Chemistry" sheetId="7" r:id="rId7"/>
+    <sheet name="6. Stratospheric Heterogeneous " sheetId="8" r:id="rId8"/>
+    <sheet name="7. Tropospheric Heterogeneous C" sheetId="9" r:id="rId9"/>
+    <sheet name="8. Photo Chemistry" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="480">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -52,34 +52,31 @@
     <t>Atmospheric Chemistry</t>
   </si>
   <si>
-    <t>Sub-Topics</t>
-  </si>
-  <si>
-    <t>1. Parties &amp; Citations</t>
-  </si>
-  <si>
-    <t>2. Key Properties</t>
-  </si>
-  <si>
-    <t>3. Grid</t>
-  </si>
-  <si>
-    <t>4. Transport</t>
-  </si>
-  <si>
-    <t>5. Emissions Concentrations</t>
-  </si>
-  <si>
-    <t>6. Gas Phase Chemistry</t>
-  </si>
-  <si>
-    <t>7. Stratospheric Heterogeneous Chemistry</t>
-  </si>
-  <si>
-    <t>8. Tropospheric Heterogeneous Chemistry</t>
-  </si>
-  <si>
-    <t>9. Photo Chemistry</t>
+    <t>Sub-Processes</t>
+  </si>
+  <si>
+    <t>1. Key Properties</t>
+  </si>
+  <si>
+    <t>2. Grid</t>
+  </si>
+  <si>
+    <t>3. Transport</t>
+  </si>
+  <si>
+    <t>4. Emissions Concentrations</t>
+  </si>
+  <si>
+    <t>5. Gas Phase Chemistry</t>
+  </si>
+  <si>
+    <t>6. Stratospheric Heterogeneous Chemistry</t>
+  </si>
+  <si>
+    <t>7. Tropospheric Heterogeneous Chemistry</t>
+  </si>
+  <si>
+    <t>8. Photo Chemistry</t>
   </si>
   <si>
     <t>How To Use</t>
@@ -100,58 +97,73 @@
     <t>1.0.0</t>
   </si>
   <si>
-    <t>1.</t>
+    <t>Spreadsheet Generator Version</t>
+  </si>
+  <si>
+    <t>Initialised By</t>
+  </si>
+  <si>
+    <t>Internal notes</t>
   </si>
   <si>
     <t>Parties &amp; Citations</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>Parties</t>
+    <t>NOTE: Multiple entries are allowed.  To enter a new row, copy &amp; paste an existing row, and edit accordingly.</t>
+  </si>
+  <si>
+    <t>Responsible Parties</t>
+  </si>
+  <si>
+    <t>https://es-doc.org/how-to-use-model-responsible-party-spreadsheets.</t>
+  </si>
+  <si>
+    <t>Enter responsible party identifiers below, one identifier per line.  You can optionally specify a role.</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Citations</t>
+  </si>
+  <si>
+    <t>https://es-doc.org/how-to-use-model-citation-spreadsheets.</t>
+  </si>
+  <si>
+    <t>Enter citation identifiers below, one identifier per line.  You can optionally specify a process.</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>Key Properties</t>
+  </si>
+  <si>
+    <t>Key properties of the atmospheric chemistry</t>
+  </si>
+  <si>
+    <t>1.1.1.1 *</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
   <si>
     <t>STRING</t>
   </si>
   <si>
-    <t>Mnemonic references to responsible parties</t>
-  </si>
-  <si>
-    <t>NOTE: Multiple entries are allowed, please insert a new row per entry.</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>Citations</t>
-  </si>
-  <si>
-    <t>Mnemonic references to citations</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>Key Properties</t>
-  </si>
-  <si>
-    <t>Key properties of the atmospheric chemistry</t>
-  </si>
-  <si>
-    <t>2.1.1 *</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Name of atmoschem model code</t>
   </si>
   <si>
     <t>cmip6.atmoschem.key_properties.name</t>
   </si>
   <si>
-    <t>2.1.2 *</t>
+    <t>1.1.1.2 *</t>
   </si>
   <si>
     <t>Keywords</t>
@@ -166,7 +178,7 @@
     <t>NOTE: Please enter a comma seperated list</t>
   </si>
   <si>
-    <t>2.1.3 *</t>
+    <t>1.1.1.3 *</t>
   </si>
   <si>
     <t>Overview</t>
@@ -181,7 +193,7 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
-    <t>2.1.4 *</t>
+    <t>1.1.1.4 *</t>
   </si>
   <si>
     <t>Chemistry Scheme Scope</t>
@@ -196,7 +208,7 @@
     <t>cmip6.atmoschem.key_properties.chemistry_scheme_scope</t>
   </si>
   <si>
-    <t>Troposhere</t>
+    <t>Troposphere</t>
   </si>
   <si>
     <t>Stratosphere</t>
@@ -208,10 +220,10 @@
     <t>Whole atmosphere</t>
   </si>
   <si>
-    <t>Other: document to the right</t>
-  </si>
-  <si>
-    <t>2.1.5 *</t>
+    <t>Other: document in cell to the right</t>
+  </si>
+  <si>
+    <t>1.1.1.5 *</t>
   </si>
   <si>
     <t>Basic Approximations</t>
@@ -223,7 +235,7 @@
     <t>cmip6.atmoschem.key_properties.basic_approximations</t>
   </si>
   <si>
-    <t>2.1.6 *</t>
+    <t>1.1.1.6 *</t>
   </si>
   <si>
     <t>Prognostic Variables Form</t>
@@ -238,7 +250,7 @@
     <t>3D mass/mixing ratio for gas</t>
   </si>
   <si>
-    <t>2.1.7 *</t>
+    <t>1.1.1.7 *</t>
   </si>
   <si>
     <t>Number Of Tracers</t>
@@ -253,7 +265,7 @@
     <t>cmip6.atmoschem.key_properties.number_of_tracers</t>
   </si>
   <si>
-    <t>2.1.8 *</t>
+    <t>1.1.1.8 *</t>
   </si>
   <si>
     <t>Family Approach</t>
@@ -268,7 +280,7 @@
     <t>cmip6.atmoschem.key_properties.family_approach</t>
   </si>
   <si>
-    <t>2.1.9 *</t>
+    <t>1.1.1.9 *</t>
   </si>
   <si>
     <t>Coupling With Chemical Reactivity</t>
@@ -280,7 +292,7 @@
     <t>cmip6.atmoschem.key_properties.coupling_with_chemical_reactivity</t>
   </si>
   <si>
-    <t>2.2</t>
+    <t>1.2.1</t>
   </si>
   <si>
     <t>Key Properties --&gt; Software Properties</t>
@@ -289,7 +301,7 @@
     <t>Software properties of aerosol code</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.1 </t>
+    <t xml:space="preserve">1.2.1.1 </t>
   </si>
   <si>
     <t>Repository</t>
@@ -301,7 +313,7 @@
     <t>cmip6.atmoschem.key_properties.software_properties.repository</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.2 </t>
+    <t xml:space="preserve">1.2.1.2 </t>
   </si>
   <si>
     <t>Code Version</t>
@@ -313,7 +325,7 @@
     <t>cmip6.atmoschem.key_properties.software_properties.code_version</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.3 </t>
+    <t xml:space="preserve">1.2.1.3 </t>
   </si>
   <si>
     <t>Code Languages</t>
@@ -325,7 +337,7 @@
     <t>cmip6.atmoschem.key_properties.software_properties.code_languages</t>
   </si>
   <si>
-    <t>2.3</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Key Properties --&gt; Timestep Framework</t>
@@ -334,16 +346,7 @@
     <t>Timestepping in the atmospheric chemistry model</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3.1 </t>
-  </si>
-  <si>
-    <t>Overview of timestepping in the atmospheric chemistry model in atmoschem model.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.key_properties.timestep_framework.overview</t>
-  </si>
-  <si>
-    <t>2.3.2 *</t>
+    <t>1.3.1.1 *</t>
   </si>
   <si>
     <t>Method</t>
@@ -361,7 +364,7 @@
     <t>Integrated</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3.3 </t>
+    <t xml:space="preserve">1.3.1.2 </t>
   </si>
   <si>
     <t>Split Operator Advection Timestep</t>
@@ -373,7 +376,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_advection_timestep</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3.4 </t>
+    <t xml:space="preserve">1.3.1.3 </t>
   </si>
   <si>
     <t>Split Operator Physical Timestep</t>
@@ -385,7 +388,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_physical_timestep</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3.5 </t>
+    <t xml:space="preserve">1.3.1.4 </t>
   </si>
   <si>
     <t>Split Operator Chemistry Timestep</t>
@@ -397,7 +400,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_chemistry_timestep</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3.6 </t>
+    <t xml:space="preserve">1.3.1.5 </t>
   </si>
   <si>
     <t>Split Operator Alternate Order</t>
@@ -409,7 +412,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_alternate_order</t>
   </si>
   <si>
-    <t>2.3.7 *</t>
+    <t>1.3.1.6 *</t>
   </si>
   <si>
     <t>Integrated Timestep</t>
@@ -421,7 +424,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.integrated_timestep</t>
   </si>
   <si>
-    <t>2.3.8 *</t>
+    <t>1.3.1.7 *</t>
   </si>
   <si>
     <t>Integrated Scheme Type</t>
@@ -457,13 +460,13 @@
     <t>Rosenbrock</t>
   </si>
   <si>
-    <t>2.4</t>
+    <t>1.3.2</t>
   </si>
   <si>
     <t>Key Properties --&gt; Timestep Framework --&gt; Split Operator Order</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.1 </t>
+    <t xml:space="preserve">1.3.2.1 </t>
   </si>
   <si>
     <t>Turbulence</t>
@@ -475,7 +478,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.turbulence</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.2 </t>
+    <t xml:space="preserve">1.3.2.2 </t>
   </si>
   <si>
     <t>Convection</t>
@@ -487,7 +490,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.convection</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.3 </t>
+    <t xml:space="preserve">1.3.2.3 </t>
   </si>
   <si>
     <t>Precipitation</t>
@@ -499,7 +502,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.precipitation</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.4 </t>
+    <t xml:space="preserve">1.3.2.4 </t>
   </si>
   <si>
     <t>Emissions</t>
@@ -511,7 +514,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.emissions</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.5 </t>
+    <t xml:space="preserve">1.3.2.5 </t>
   </si>
   <si>
     <t>Deposition</t>
@@ -523,7 +526,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.deposition</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.6 </t>
+    <t xml:space="preserve">1.3.2.6 </t>
   </si>
   <si>
     <t>Gas Phase Chemistry</t>
@@ -535,7 +538,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.gas_phase_chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.7 </t>
+    <t xml:space="preserve">1.3.2.7 </t>
   </si>
   <si>
     <t>Tropospheric Heterogeneous Phase Chemistry</t>
@@ -547,7 +550,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.tropospheric_heterogeneous_phase_chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.8 </t>
+    <t xml:space="preserve">1.3.2.8 </t>
   </si>
   <si>
     <t>Stratospheric Heterogeneous Phase Chemistry</t>
@@ -559,7 +562,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.stratospheric_heterogeneous_phase_chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.9 </t>
+    <t xml:space="preserve">1.3.2.9 </t>
   </si>
   <si>
     <t>Photo Chemistry</t>
@@ -571,7 +574,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.photo_chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.10 </t>
+    <t xml:space="preserve">1.3.2.10 </t>
   </si>
   <si>
     <t>Aerosols</t>
@@ -583,7 +586,7 @@
     <t>cmip6.atmoschem.key_properties.timestep_framework.split_operator_order.aerosols</t>
   </si>
   <si>
-    <t>2.5</t>
+    <t>1.4.1</t>
   </si>
   <si>
     <t>Key Properties --&gt; Tuning Applied</t>
@@ -592,16 +595,7 @@
     <t>Tuning methodology for atmospheric chemistry component</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5.1 </t>
-  </si>
-  <si>
-    <t>Overview of tuning methodology for atmospheric chemistry component in atmoschem model.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.key_properties.tuning_applied.overview</t>
-  </si>
-  <si>
-    <t>2.5.2 *</t>
+    <t>1.4.1.1 *</t>
   </si>
   <si>
     <t>Description</t>
@@ -613,7 +607,7 @@
     <t>cmip6.atmoschem.key_properties.tuning_applied.description</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5.3 </t>
+    <t xml:space="preserve">1.4.1.2 </t>
   </si>
   <si>
     <t>Global Mean Metrics Used</t>
@@ -625,7 +619,7 @@
     <t>cmip6.atmoschem.key_properties.tuning_applied.global_mean_metrics_used</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5.4 </t>
+    <t xml:space="preserve">1.4.1.3 </t>
   </si>
   <si>
     <t>Regional Metrics Used</t>
@@ -637,7 +631,7 @@
     <t>cmip6.atmoschem.key_properties.tuning_applied.regional_metrics_used</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5.5 </t>
+    <t xml:space="preserve">1.4.1.4 </t>
   </si>
   <si>
     <t>Trend Metrics Used</t>
@@ -649,7 +643,7 @@
     <t>cmip6.atmoschem.key_properties.tuning_applied.trend_metrics_used</t>
   </si>
   <si>
-    <t>3.1</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>Grid</t>
@@ -658,7 +652,7 @@
     <t>Atmospheric chemistry grid</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.1 </t>
+    <t xml:space="preserve">2.1.1.1 </t>
   </si>
   <si>
     <t>Name of grid in atmoschem model.</t>
@@ -667,7 +661,7 @@
     <t>cmip6.atmoschem.grid.name</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1.2 </t>
+    <t xml:space="preserve">2.1.1.2 </t>
   </si>
   <si>
     <t>Overview of grid in atmoschem model.</t>
@@ -676,7 +670,7 @@
     <t>cmip6.atmoschem.grid.overview</t>
   </si>
   <si>
-    <t>3.1.3 *</t>
+    <t>2.1.1.3 *</t>
   </si>
   <si>
     <t>Matches Atmosphere Grid</t>
@@ -688,7 +682,7 @@
     <t>cmip6.atmoschem.grid.matches_atmosphere_grid</t>
   </si>
   <si>
-    <t>3.2</t>
+    <t>2.2.1</t>
   </si>
   <si>
     <t>Grid --&gt; Resolution</t>
@@ -697,16 +691,7 @@
     <t>Resolution in the atmospheric chemistry grid</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.1 </t>
-  </si>
-  <si>
-    <t>Overview of resolution in the atmospheric chemistry grid in atmoschem model.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.grid.resolution.overview</t>
-  </si>
-  <si>
-    <t>3.2.2 *</t>
+    <t>2.2.1.1 *</t>
   </si>
   <si>
     <t>This is a string usually used by the modelling group to describe the resolution of this grid, e.g. ORCA025, N512L180, T512L70 etc.</t>
@@ -715,7 +700,7 @@
     <t>cmip6.atmoschem.grid.resolution.name</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.3 </t>
+    <t xml:space="preserve">2.2.1.2 </t>
   </si>
   <si>
     <t>Canonical Horizontal Resolution</t>
@@ -727,7 +712,7 @@
     <t>cmip6.atmoschem.grid.resolution.canonical_horizontal_resolution</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.4 </t>
+    <t xml:space="preserve">2.2.1.3 </t>
   </si>
   <si>
     <t>Number Of Horizontal Gridpoints</t>
@@ -739,7 +724,7 @@
     <t>cmip6.atmoschem.grid.resolution.number_of_horizontal_gridpoints</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.5 </t>
+    <t xml:space="preserve">2.2.1.4 </t>
   </si>
   <si>
     <t>Number Of Vertical Levels</t>
@@ -751,7 +736,7 @@
     <t>cmip6.atmoschem.grid.resolution.number_of_vertical_levels</t>
   </si>
   <si>
-    <t xml:space="preserve">3.2.6 </t>
+    <t xml:space="preserve">2.2.1.5 </t>
   </si>
   <si>
     <t>Is Adaptive Grid</t>
@@ -763,7 +748,7 @@
     <t>cmip6.atmoschem.grid.resolution.is_adaptive_grid</t>
   </si>
   <si>
-    <t>4.1</t>
+    <t>3.1.1</t>
   </si>
   <si>
     <t>Transport</t>
@@ -772,7 +757,7 @@
     <t>Atmospheric chemistry transport</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.1 </t>
+    <t xml:space="preserve">3.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the transport in atmoschem model.</t>
@@ -781,7 +766,7 @@
     <t>cmip6.atmoschem.transport.name</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.2 </t>
+    <t xml:space="preserve">3.1.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry transport in atmoschem model.</t>
@@ -790,7 +775,7 @@
     <t>cmip6.atmoschem.transport.overview</t>
   </si>
   <si>
-    <t>4.1.3 *</t>
+    <t>3.1.1.3 *</t>
   </si>
   <si>
     <t>Use Atmospheric Transport</t>
@@ -802,7 +787,7 @@
     <t>cmip6.atmoschem.transport.use_atmospheric_transport</t>
   </si>
   <si>
-    <t xml:space="preserve">4.1.4 </t>
+    <t xml:space="preserve">3.1.1.4 </t>
   </si>
   <si>
     <t>Transport Details</t>
@@ -814,7 +799,7 @@
     <t>cmip6.atmoschem.transport.transport_details</t>
   </si>
   <si>
-    <t>5.1</t>
+    <t>4.1.1</t>
   </si>
   <si>
     <t>Emissions Concentrations</t>
@@ -823,7 +808,7 @@
     <t>Atmospheric chemistry emissions</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.1 </t>
+    <t xml:space="preserve">4.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the emissions concentrations in atmoschem model.</t>
@@ -832,7 +817,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.name</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.2 </t>
+    <t xml:space="preserve">4.1.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry emissions in atmoschem model.</t>
@@ -841,22 +826,13 @@
     <t>cmip6.atmoschem.emissions_concentrations.overview</t>
   </si>
   <si>
-    <t>5.2</t>
+    <t>4.2.1</t>
   </si>
   <si>
     <t>Emissions Concentrations --&gt; Surface Emissions</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2.1 </t>
-  </si>
-  <si>
-    <t>Overview of  in atmoschem model.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2.2 </t>
+    <t xml:space="preserve">4.2.1.1 </t>
   </si>
   <si>
     <t>Sources</t>
@@ -883,7 +859,7 @@
     <t>Biomass burning</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2.3 </t>
+    <t xml:space="preserve">4.2.1.2 </t>
   </si>
   <si>
     <t>Methods used to define chemical species emitted directly into model layers above the surface (several methods allowed because the different species may not use the same method).</t>
@@ -904,7 +880,7 @@
     <t>Interactive</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2.4 </t>
+    <t xml:space="preserve">4.2.1.3 </t>
   </si>
   <si>
     <t>Prescribed Climatology Emitted Species</t>
@@ -916,7 +892,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.prescribed_climatology_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2.5 </t>
+    <t xml:space="preserve">4.2.1.4 </t>
   </si>
   <si>
     <t>Prescribed Spatially Uniform Emitted Species</t>
@@ -928,7 +904,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.prescribed_spatially_uniform_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2.6 </t>
+    <t xml:space="preserve">4.2.1.5 </t>
   </si>
   <si>
     <t>Interactive Emitted Species</t>
@@ -940,7 +916,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.interactive_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2.7 </t>
+    <t xml:space="preserve">4.2.1.6 </t>
   </si>
   <si>
     <t>Other Emitted Species</t>
@@ -952,7 +928,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.surface_emissions.other_emitted_species</t>
   </si>
   <si>
-    <t>5.3</t>
+    <t>4.3.1</t>
   </si>
   <si>
     <t>Emissions Concentrations --&gt; Atmospheric Emissions</t>
@@ -961,16 +937,7 @@
     <t>TO DO</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3.1 </t>
-  </si>
-  <si>
-    <t>Overview of to do in atmoschem model.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3.2 </t>
+    <t xml:space="preserve">4.3.1.1 </t>
   </si>
   <si>
     <t>Sources of chemical species emitted in the atmosphere that are taken into account in the emissions scheme.</t>
@@ -988,7 +955,7 @@
     <t>Volcanos</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3.3 </t>
+    <t xml:space="preserve">4.3.1.2 </t>
   </si>
   <si>
     <t>Methods used to define the chemical species emitted in the atmosphere (several methods allowed because the different species may not use the same method).</t>
@@ -997,7 +964,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.method</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3.4 </t>
+    <t xml:space="preserve">4.3.1.3 </t>
   </si>
   <si>
     <t>List of chemical species emitted in the atmosphere and prescribed via a climatology (E.g. CO (monthly), C2H6 (constant))</t>
@@ -1006,7 +973,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.prescribed_climatology_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3.5 </t>
+    <t xml:space="preserve">4.3.1.4 </t>
   </si>
   <si>
     <t>List of chemical species emitted in the atmosphere and prescribed as spatially uniform</t>
@@ -1015,7 +982,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.prescribed_spatially_uniform_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3.6 </t>
+    <t xml:space="preserve">4.3.1.5 </t>
   </si>
   <si>
     <t>List of chemical species emitted in the atmosphere and specified via an interactive method</t>
@@ -1024,7 +991,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.interactive_emitted_species</t>
   </si>
   <si>
-    <t xml:space="preserve">5.3.7 </t>
+    <t xml:space="preserve">4.3.1.6 </t>
   </si>
   <si>
     <t>List of chemical species emitted in the atmosphere and specified via an "other method"</t>
@@ -1033,19 +1000,13 @@
     <t>cmip6.atmoschem.emissions_concentrations.atmospheric_emissions.other_emitted_species</t>
   </si>
   <si>
-    <t>5.4</t>
+    <t>4.4.1</t>
   </si>
   <si>
     <t>Emissions Concentrations --&gt; Concentrations</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4.1 </t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.emissions_concentrations.concentrations.overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4.2 </t>
+    <t xml:space="preserve">4.4.1.1 </t>
   </si>
   <si>
     <t>Prescribed Lower Boundary</t>
@@ -1057,7 +1018,7 @@
     <t>cmip6.atmoschem.emissions_concentrations.concentrations.prescribed_lower_boundary</t>
   </si>
   <si>
-    <t xml:space="preserve">5.4.3 </t>
+    <t xml:space="preserve">4.4.1.2 </t>
   </si>
   <si>
     <t>Prescribed Upper Boundary</t>
@@ -1069,13 +1030,13 @@
     <t>cmip6.atmoschem.emissions_concentrations.concentrations.prescribed_upper_boundary</t>
   </si>
   <si>
-    <t>6.1</t>
+    <t>5.1.1</t>
   </si>
   <si>
     <t>Atmospheric gas phase chemistry transport</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.1 </t>
+    <t xml:space="preserve">5.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the gas phase chemistry in atmoschem model.</t>
@@ -1084,7 +1045,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.name</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.2 </t>
+    <t xml:space="preserve">5.1.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric gas phase chemistry transport in atmoschem model.</t>
@@ -1093,7 +1054,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1.3 </t>
+    <t xml:space="preserve">5.1.1.3 </t>
   </si>
   <si>
     <t>Species</t>
@@ -1132,7 +1093,7 @@
     <t>H2O</t>
   </si>
   <si>
-    <t>6.1.4 *</t>
+    <t>5.1.1.4 *</t>
   </si>
   <si>
     <t>Number Of Bimolecular Reactions</t>
@@ -1144,7 +1105,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_bimolecular_reactions</t>
   </si>
   <si>
-    <t>6.1.5 *</t>
+    <t>5.1.1.5 *</t>
   </si>
   <si>
     <t>Number Of Termolecular Reactions</t>
@@ -1156,7 +1117,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_termolecular_reactions</t>
   </si>
   <si>
-    <t>6.1.6 *</t>
+    <t>5.1.1.6 *</t>
   </si>
   <si>
     <t>Number Of Tropospheric Heterogenous Reactions</t>
@@ -1168,7 +1129,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_tropospheric_heterogenous_reactions</t>
   </si>
   <si>
-    <t>6.1.7 *</t>
+    <t>5.1.1.7 *</t>
   </si>
   <si>
     <t>Number Of Stratospheric Heterogenous Reactions</t>
@@ -1180,7 +1141,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_stratospheric_heterogenous_reactions</t>
   </si>
   <si>
-    <t>6.1.8 *</t>
+    <t>5.1.1.8 *</t>
   </si>
   <si>
     <t>Number Of Advected Species</t>
@@ -1192,7 +1153,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_advected_species</t>
   </si>
   <si>
-    <t>6.1.9 *</t>
+    <t>5.1.1.9 *</t>
   </si>
   <si>
     <t>Number Of Steady State Species</t>
@@ -1204,7 +1165,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.number_of_steady_state_species</t>
   </si>
   <si>
-    <t>6.1.10 *</t>
+    <t>5.1.1.10 *</t>
   </si>
   <si>
     <t>Interactive Dry Deposition</t>
@@ -1216,7 +1177,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.interactive_dry_deposition</t>
   </si>
   <si>
-    <t>6.1.11 *</t>
+    <t>5.1.1.11 *</t>
   </si>
   <si>
     <t>Wet Deposition</t>
@@ -1228,7 +1189,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.wet_deposition</t>
   </si>
   <si>
-    <t>6.1.12 *</t>
+    <t>5.1.1.12 *</t>
   </si>
   <si>
     <t>Wet Oxidation</t>
@@ -1240,7 +1201,7 @@
     <t>cmip6.atmoschem.gas_phase_chemistry.wet_oxidation</t>
   </si>
   <si>
-    <t>7.1</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Stratospheric Heterogeneous Chemistry</t>
@@ -1249,7 +1210,7 @@
     <t>Atmospheric chemistry startospheric heterogeneous chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.1 </t>
+    <t xml:space="preserve">6.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the stratospheric heterogeneous chemistry in atmoschem model.</t>
@@ -1258,7 +1219,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.name</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.2 </t>
+    <t xml:space="preserve">6.1.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry startospheric heterogeneous chemistry in atmoschem model.</t>
@@ -1267,7 +1228,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.3 </t>
+    <t xml:space="preserve">6.1.1.3 </t>
   </si>
   <si>
     <t>Gas Phase Species</t>
@@ -1279,7 +1240,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.gas_phase_species</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1.4 </t>
+    <t xml:space="preserve">6.1.1.4 </t>
   </si>
   <si>
     <t>Aerosol Species</t>
@@ -1306,7 +1267,7 @@
     <t>STS (supercooled ternary solution aerosol particule))</t>
   </si>
   <si>
-    <t>7.1.5 *</t>
+    <t>6.1.1.5 *</t>
   </si>
   <si>
     <t>The number of steady state species in the stratospheric heterogeneous chemistry scheme.</t>
@@ -1315,7 +1276,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.number_of_steady_state_species</t>
   </si>
   <si>
-    <t>7.1.6 *</t>
+    <t>6.1.1.6 *</t>
   </si>
   <si>
     <t>Sedimentation</t>
@@ -1327,7 +1288,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.sedimentation</t>
   </si>
   <si>
-    <t>7.1.7 *</t>
+    <t>6.1.1.7 *</t>
   </si>
   <si>
     <t>Coagulation</t>
@@ -1339,7 +1300,7 @@
     <t>cmip6.atmoschem.stratospheric_heterogeneous_chemistry.coagulation</t>
   </si>
   <si>
-    <t>8.1</t>
+    <t>7.1.1</t>
   </si>
   <si>
     <t>Tropospheric Heterogeneous Chemistry</t>
@@ -1348,7 +1309,7 @@
     <t>Atmospheric chemistry tropospheric heterogeneous chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1.1 </t>
+    <t xml:space="preserve">7.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the tropospheric heterogeneous chemistry in atmoschem model.</t>
@@ -1357,7 +1318,7 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.name</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1.2 </t>
+    <t xml:space="preserve">7.1.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry tropospheric heterogeneous chemistry in atmoschem model.</t>
@@ -1366,7 +1327,7 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.overview</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1.3 </t>
+    <t xml:space="preserve">7.1.1.3 </t>
   </si>
   <si>
     <t>List of gas phase species included in the tropospheric heterogeneous chemistry scheme.</t>
@@ -1375,7 +1336,7 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.gas_phase_species</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1.4 </t>
+    <t xml:space="preserve">7.1.1.4 </t>
   </si>
   <si>
     <t>Aerosol species included in the tropospheric heterogeneous chemistry scheme.</t>
@@ -1408,7 +1369,7 @@
     <t>Particulate organic matter</t>
   </si>
   <si>
-    <t>8.1.5 *</t>
+    <t>7.1.1.5 *</t>
   </si>
   <si>
     <t>The number of steady state species in the tropospheric heterogeneous chemistry scheme.</t>
@@ -1417,13 +1378,13 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.number_of_steady_state_species</t>
   </si>
   <si>
-    <t>8.1.6 *</t>
+    <t>7.1.1.6 *</t>
   </si>
   <si>
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.interactive_dry_deposition</t>
   </si>
   <si>
-    <t>8.1.7 *</t>
+    <t>7.1.1.7 *</t>
   </si>
   <si>
     <t>Is coagulation is included in the tropospheric heterogeneous chemistry scheme or not?</t>
@@ -1432,13 +1393,13 @@
     <t>cmip6.atmoschem.tropospheric_heterogeneous_chemistry.coagulation</t>
   </si>
   <si>
-    <t>9.1</t>
+    <t>8.1.1</t>
   </si>
   <si>
     <t>Atmospheric chemistry photo chemistry</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1.1 </t>
+    <t xml:space="preserve">8.1.1.1 </t>
   </si>
   <si>
     <t>Commonly used name for the photo chemistry in atmoschem model.</t>
@@ -1447,7 +1408,7 @@
     <t>cmip6.atmoschem.photo_chemistry.name</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1.2 </t>
+    <t xml:space="preserve">8.1.1.2 </t>
   </si>
   <si>
     <t>Overview of atmospheric chemistry photo chemistry in atmoschem model.</t>
@@ -1456,7 +1417,7 @@
     <t>cmip6.atmoschem.photo_chemistry.overview</t>
   </si>
   <si>
-    <t>9.1.3 *</t>
+    <t>8.1.1.3 *</t>
   </si>
   <si>
     <t>Number Of Reactions</t>
@@ -1468,7 +1429,7 @@
     <t>cmip6.atmoschem.photo_chemistry.number_of_reactions</t>
   </si>
   <si>
-    <t>9.2</t>
+    <t>8.2.1</t>
   </si>
   <si>
     <t>Photo Chemistry --&gt; Photolysis</t>
@@ -1477,16 +1438,7 @@
     <t>Photolysis scheme</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2.1 </t>
-  </si>
-  <si>
-    <t>Overview of photolysis scheme in atmoschem model.</t>
-  </si>
-  <si>
-    <t>cmip6.atmoschem.photo_chemistry.photolysis.overview</t>
-  </si>
-  <si>
-    <t>9.2.2 *</t>
+    <t>8.2.1.1 *</t>
   </si>
   <si>
     <t>cmip6.atmoschem.photo_chemistry.photolysis.method</t>
@@ -1501,7 +1453,7 @@
     <t>Online</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2.3 </t>
+    <t xml:space="preserve">8.2.1.2 </t>
   </si>
   <si>
     <t>Environmental Conditions</t>
@@ -1517,7 +1469,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1540,13 +1492,19 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="16"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="16"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -1565,6 +1523,13 @@
       <family val="2"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
@@ -1572,21 +1537,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -1599,8 +1551,21 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -1650,7 +1615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1664,31 +1629,34 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1985,7 +1953,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD21"/>
+  <dimension ref="A1:XFD23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2076,39 +2044,54 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="B16" s="4" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="B17" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="B18" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="4" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="B20" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1"/>
-    <hyperlink ref="B19" r:id="rId2"/>
+    <hyperlink ref="B17" r:id="rId1"/>
+    <hyperlink ref="B18" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2116,97 +2099,97 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD31"/>
+  <dimension ref="A1:XFD27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
+      <c r="A4" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>473</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>48</v>
+      <c r="A8" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>476</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>51</v>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>478</v>
+      <c r="A13" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>480</v>
+      <c r="A14" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -2214,99 +2197,77 @@
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
     </row>
     <row r="21" spans="1:29" ht="24" customHeight="1">
-      <c r="A21" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>48</v>
+      <c r="A21" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>486</v>
+      <c r="A22" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
       <c r="B23" s="11"/>
+      <c r="AA23" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="AB23" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="25" spans="1:29" ht="24" customHeight="1">
-      <c r="A25" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>107</v>
+      <c r="A25" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>488</v>
+      <c r="A26" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
       <c r="B27" s="11"/>
-      <c r="AA27" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="AB27" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="AC27" s="5" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" ht="24" customHeight="1">
-      <c r="A29" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="24" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" ht="24" customHeight="1">
-      <c r="B31" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>AA27:AC27</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23">
+      <formula1>AA23:AC23</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2315,342 +2276,365 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD11"/>
+  <dimension ref="A1:XFD17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="80.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+      <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+      <formula1>"Top Level,Key Properties,Grid,Transport,Emissions Concentrations,Gas Phase Chemistry,Stratospheric Heterogeneous Chemistry,Tropospheric Heterogeneous Chemistry,Photo Chemistry"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A6" r:id="rId1"/>
+    <hyperlink ref="A13" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:XFD159"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="11"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD167"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
+      <c r="A4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>41</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24" customHeight="1">
+      <c r="A9" s="14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>45</v>
+      <c r="B9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>46</v>
+      <c r="B10" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>48</v>
+      <c r="A13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>50</v>
+      <c r="A14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="10" t="s">
-        <v>51</v>
+      <c r="B15" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>53</v>
+      <c r="A18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="24" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>56</v>
+      <c r="A19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="24" customHeight="1">
       <c r="B20" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="24" customHeight="1">
       <c r="B21" s="11"/>
-      <c r="AA21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB21" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE21" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF21" s="5" t="s">
+      <c r="AA21" s="6" t="s">
         <v>61</v>
       </c>
+      <c r="AB21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>63</v>
+      <c r="A23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:32" ht="24" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>65</v>
+      <c r="A24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="24" customHeight="1">
       <c r="B25" s="11"/>
     </row>
     <row r="27" spans="1:32" ht="24" customHeight="1">
-      <c r="A27" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>67</v>
+      <c r="A27" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:32" ht="24" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>69</v>
+      <c r="A28" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="24" customHeight="1">
       <c r="B29" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="24" customHeight="1">
       <c r="B30" s="11"/>
-      <c r="AA30" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB30" s="5" t="s">
-        <v>61</v>
+      <c r="AA30" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:32" ht="24" customHeight="1">
-      <c r="A32" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>72</v>
+      <c r="A32" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>75</v>
+      <c r="A33" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="11"/>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
-      <c r="A36" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>77</v>
+      <c r="A36" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>80</v>
+      <c r="A37" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
       <c r="B38" s="11"/>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
-      <c r="A40" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="7" t="s">
+      <c r="A40" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="24" customHeight="1">
+      <c r="A41" s="14" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>84</v>
+      <c r="B41" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -2658,83 +2642,83 @@
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="12" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="B46" s="13" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="A48" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>89</v>
+      <c r="A48" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="A49" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>91</v>
+      <c r="A49" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="B50" s="11"/>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="A52" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>93</v>
+      <c r="A52" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
-      <c r="A53" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>95</v>
+      <c r="A53" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="B54" s="11"/>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
-      <c r="A56" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>97</v>
+      <c r="A56" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
-      <c r="A57" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>99</v>
+      <c r="A57" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
-      <c r="B58" s="10" t="s">
-        <v>46</v>
+      <c r="B58" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
@@ -2742,602 +2726,558 @@
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:29" ht="24" customHeight="1">
-      <c r="A65" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>48</v>
+      <c r="A65" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:29" ht="24" customHeight="1">
-      <c r="A66" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>105</v>
+      <c r="A66" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:29" ht="24" customHeight="1">
       <c r="B67" s="11"/>
+      <c r="AA67" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB67" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC67" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="69" spans="1:29" ht="24" customHeight="1">
-      <c r="A69" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>107</v>
+      <c r="A69" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:29" ht="24" customHeight="1">
-      <c r="A70" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>109</v>
+      <c r="A70" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:29" ht="24" customHeight="1">
       <c r="B71" s="11"/>
-      <c r="AA71" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB71" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC71" s="5" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="73" spans="1:29" ht="24" customHeight="1">
-      <c r="A73" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>113</v>
+      <c r="A73" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:29" ht="24" customHeight="1">
-      <c r="A74" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>115</v>
+      <c r="A74" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:29" ht="24" customHeight="1">
       <c r="B75" s="11"/>
     </row>
     <row r="77" spans="1:29" ht="24" customHeight="1">
-      <c r="A77" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>117</v>
+      <c r="A77" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:29" ht="24" customHeight="1">
-      <c r="A78" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>119</v>
+      <c r="A78" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="79" spans="1:29" ht="24" customHeight="1">
       <c r="B79" s="11"/>
     </row>
     <row r="81" spans="1:35" ht="24" customHeight="1">
-      <c r="A81" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>121</v>
+      <c r="A81" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="82" spans="1:35" ht="24" customHeight="1">
-      <c r="A82" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>123</v>
+      <c r="A82" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="1:35" ht="24" customHeight="1">
       <c r="B83" s="11"/>
     </row>
     <row r="85" spans="1:35" ht="24" customHeight="1">
-      <c r="A85" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>125</v>
+      <c r="A85" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:35" ht="24" customHeight="1">
-      <c r="A86" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>127</v>
+      <c r="A86" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="87" spans="1:35" ht="24" customHeight="1">
       <c r="B87" s="11"/>
     </row>
     <row r="89" spans="1:35" ht="24" customHeight="1">
-      <c r="A89" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>129</v>
+      <c r="A89" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="90" spans="1:35" ht="24" customHeight="1">
-      <c r="A90" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>131</v>
+      <c r="A90" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="1:35" ht="24" customHeight="1">
       <c r="B91" s="11"/>
-    </row>
-    <row r="93" spans="1:35" ht="24" customHeight="1">
-      <c r="A93" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>133</v>
+      <c r="AA91" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB91" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC91" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD91" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE91" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF91" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG91" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH91" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI91" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:35" ht="24" customHeight="1">
-      <c r="A94" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>135</v>
+      <c r="A94" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="95" spans="1:35" ht="24" customHeight="1">
-      <c r="B95" s="11"/>
-      <c r="AA95" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB95" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC95" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD95" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE95" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF95" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG95" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH95" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AI95" s="5" t="s">
-        <v>61</v>
+      <c r="B95" s="13"/>
+    </row>
+    <row r="97" spans="1:3" ht="24" customHeight="1">
+      <c r="A97" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
-      <c r="A98" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B98" s="12" t="s">
-        <v>145</v>
+      <c r="A98" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="B99" s="13"/>
+      <c r="B99" s="11"/>
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="A101" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>147</v>
+      <c r="A101" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
-      <c r="A102" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>149</v>
+      <c r="A102" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
       <c r="B103" s="11"/>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="A105" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>151</v>
+      <c r="A105" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
-      <c r="A106" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>153</v>
+      <c r="A106" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="B107" s="11"/>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="A109" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>155</v>
+      <c r="A109" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
-      <c r="A110" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>157</v>
+      <c r="A110" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="B111" s="11"/>
     </row>
     <row r="113" spans="1:3" ht="24" customHeight="1">
-      <c r="A113" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>159</v>
+      <c r="A113" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
-      <c r="A114" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>161</v>
+      <c r="A114" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
       <c r="B115" s="11"/>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
-      <c r="A117" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>163</v>
+      <c r="A117" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="24" customHeight="1">
-      <c r="A118" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>165</v>
+      <c r="A118" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="B119" s="11"/>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
-      <c r="A121" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>167</v>
+      <c r="A121" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
-      <c r="A122" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>169</v>
+      <c r="A122" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="24" customHeight="1">
       <c r="B123" s="11"/>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
-      <c r="A125" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>171</v>
+      <c r="A125" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
-      <c r="A126" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>173</v>
+      <c r="A126" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="24" customHeight="1">
       <c r="B127" s="11"/>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
-      <c r="A129" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>175</v>
+      <c r="A129" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
-      <c r="A130" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C130" s="9" t="s">
-        <v>177</v>
+      <c r="A130" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
       <c r="B131" s="11"/>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
-      <c r="A133" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>179</v>
+      <c r="A133" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
-      <c r="A134" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C134" s="9" t="s">
-        <v>181</v>
+      <c r="A134" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
       <c r="B135" s="11"/>
     </row>
-    <row r="137" spans="1:3" ht="24" customHeight="1">
-      <c r="A137" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
-      <c r="A138" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C138" s="9" t="s">
-        <v>185</v>
+      <c r="A138" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
-      <c r="B139" s="11"/>
+      <c r="B139" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="24" customHeight="1">
+      <c r="A141" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
-      <c r="A142" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="B142" s="12" t="s">
-        <v>187</v>
+      <c r="A142" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
-      <c r="B143" s="13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="24" customHeight="1">
-      <c r="A145" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="B143" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="178" customHeight="1">
+      <c r="B144" s="11"/>
     </row>
     <row r="146" spans="1:3" ht="24" customHeight="1">
-      <c r="A146" s="8" t="s">
-        <v>29</v>
+      <c r="A146" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="C146" s="9" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
-      <c r="B147" s="11"/>
+      <c r="A147" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="24" customHeight="1">
+      <c r="B148" s="8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
-      <c r="A149" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="24" customHeight="1">
-      <c r="A150" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C150" s="9" t="s">
-        <v>195</v>
-      </c>
+      <c r="B149" s="11"/>
     </row>
     <row r="151" spans="1:3" ht="24" customHeight="1">
-      <c r="B151" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="178" customHeight="1">
-      <c r="B152" s="11"/>
+      <c r="A151" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="24" customHeight="1">
+      <c r="A152" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="24" customHeight="1">
+      <c r="B153" s="8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
-      <c r="A154" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="24" customHeight="1">
-      <c r="A155" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C155" s="9" t="s">
-        <v>199</v>
-      </c>
+      <c r="B154" s="11"/>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
-      <c r="B156" s="10" t="s">
-        <v>46</v>
+      <c r="A156" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
-      <c r="B157" s="11"/>
+      <c r="A157" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="24" customHeight="1">
+      <c r="B158" s="8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="159" spans="1:3" ht="24" customHeight="1">
-      <c r="A159" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="24" customHeight="1">
-      <c r="A160" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B160" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="C160" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="24" customHeight="1">
-      <c r="B161" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="24" customHeight="1">
-      <c r="B162" s="11"/>
-    </row>
-    <row r="164" spans="1:3" ht="24" customHeight="1">
-      <c r="A164" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="24" customHeight="1">
-      <c r="A165" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B165" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="C165" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="24" customHeight="1">
-      <c r="B166" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="24" customHeight="1">
-      <c r="B167" s="11"/>
+      <c r="B159" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="22">
@@ -3356,8 +3296,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71">
-      <formula1>AA71:AC71</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67">
+      <formula1>AA67:AC67</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71">
+      <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75">
       <formula1>0</formula1>
@@ -3365,17 +3308,17 @@
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B87">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B87">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B91">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B91">
+      <formula1>AA91:AI91</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B99">
       <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95">
-      <formula1>AA95:AI95</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B103">
       <formula1>0</formula1>
@@ -3402,9 +3345,6 @@
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B135">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B139">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -3414,97 +3354,97 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD43"/>
+  <dimension ref="A1:XFD39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="24" customHeight="1">
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="C5" s="10" t="s">
         <v>211</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24" customHeight="1">
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>216</v>
-      </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>51</v>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" customHeight="1">
+      <c r="A14" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C14" s="10" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3512,161 +3452,139 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="24" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="24" customHeight="1">
+      <c r="A22" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="24" customHeight="1">
-      <c r="A21" s="7" t="s">
+      <c r="C22" s="10" t="s">
         <v>224</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="B23" s="11"/>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="24" customHeight="1">
+      <c r="A26" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="24" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>228</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="B27" s="11"/>
     </row>
     <row r="29" spans="1:3" ht="24" customHeight="1">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="B29" s="7" t="s">
+    </row>
+    <row r="30" spans="1:3" ht="24" customHeight="1">
+      <c r="A30" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>232</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="B31" s="11"/>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B33" s="7" t="s">
+    </row>
+    <row r="34" spans="1:3" ht="24" customHeight="1">
+      <c r="A34" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>236</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="B35" s="11"/>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B37" s="7" t="s">
+    </row>
+    <row r="38" spans="1:3" ht="24" customHeight="1">
+      <c r="A38" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="9" t="s">
+      <c r="C38" s="10" t="s">
         <v>240</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="B39" s="11"/>
-    </row>
-    <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="B43" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+      <formula1>0</formula1>
+    </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3683,117 +3601,117 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
+      <c r="A4" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>251</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>48</v>
+      <c r="A8" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>254</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>51</v>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>256</v>
+      <c r="A13" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>258</v>
+      <c r="A14" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="11"/>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
-      <c r="A17" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>260</v>
+      <c r="A17" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>262</v>
+      <c r="A18" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="B19" s="10" t="s">
-        <v>51</v>
+      <c r="B19" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="178" customHeight="1">
@@ -3811,75 +3729,75 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD105"/>
+  <dimension ref="A1:XFD93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
+      <c r="A4" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>268</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>48</v>
+      <c r="A8" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>271</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>51</v>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -3887,561 +3805,495 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13"/>
     </row>
     <row r="17" spans="1:32" ht="24" customHeight="1">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="24" customHeight="1">
+      <c r="A18" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="24" customHeight="1">
+      <c r="B19" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" ht="24" customHeight="1">
+      <c r="B20" s="11"/>
+      <c r="AA20" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB20" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" ht="24" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="AC20" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="AD20" s="6" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="19" spans="1:32" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
-    </row>
-    <row r="21" spans="1:32" ht="24" customHeight="1">
-      <c r="A21" s="7" t="s">
+      <c r="AE20" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="AF20" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" ht="24" customHeight="1">
+      <c r="A22" s="9" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="22" spans="1:32" ht="24" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>54</v>
-      </c>
       <c r="B22" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" ht="24" customHeight="1">
+      <c r="A23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C23" s="10" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="24" customHeight="1">
-      <c r="B23" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="24" spans="1:32" ht="24" customHeight="1">
-      <c r="B24" s="11"/>
-      <c r="AA24" s="5" t="s">
+      <c r="B24" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" ht="24" customHeight="1">
+      <c r="B25" s="11"/>
+      <c r="AA25" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="AB24" s="5" t="s">
+      <c r="AB25" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="AC24" s="5" t="s">
+      <c r="AC25" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="AD24" s="5" t="s">
+      <c r="AD25" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="AE24" s="5" t="s">
+      <c r="AE25" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" ht="24" customHeight="1">
+      <c r="A27" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="AF24" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" ht="24" customHeight="1">
-      <c r="A26" s="7" t="s">
+      <c r="B27" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" ht="24" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="9" t="s">
+    </row>
+    <row r="28" spans="1:32" ht="24" customHeight="1">
+      <c r="A28" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="24" customHeight="1">
-      <c r="B28" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="29" spans="1:32" ht="24" customHeight="1">
-      <c r="B29" s="11"/>
-      <c r="AA29" s="5" t="s">
+      <c r="B29" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" ht="24" customHeight="1">
+      <c r="B30" s="11"/>
+    </row>
+    <row r="32" spans="1:32" ht="24" customHeight="1">
+      <c r="A32" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="AB29" s="5" t="s">
+      <c r="B32" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="AC29" s="5" t="s">
+    </row>
+    <row r="33" spans="1:3" ht="24" customHeight="1">
+      <c r="A33" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="AD29" s="5" t="s">
+      <c r="C33" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="AE29" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" ht="24" customHeight="1">
-      <c r="A31" s="7" t="s">
+    </row>
+    <row r="34" spans="1:3" ht="24" customHeight="1">
+      <c r="B34" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="24" customHeight="1">
+      <c r="B35" s="11"/>
+    </row>
+    <row r="37" spans="1:3" ht="24" customHeight="1">
+      <c r="A37" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B37" s="9" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="32" spans="1:32" ht="24" customHeight="1">
-      <c r="A32" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="9" t="s">
+    <row r="38" spans="1:3" ht="24" customHeight="1">
+      <c r="A38" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C38" s="10" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="24" customHeight="1">
-      <c r="B33" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="B34" s="11"/>
-    </row>
-    <row r="36" spans="1:3" ht="24" customHeight="1">
-      <c r="A36" s="7" t="s">
+    <row r="39" spans="1:3" ht="24" customHeight="1">
+      <c r="B39" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="24" customHeight="1">
+      <c r="B40" s="11"/>
+    </row>
+    <row r="42" spans="1:3" ht="24" customHeight="1">
+      <c r="A42" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B42" s="9" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="A37" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="9" t="s">
+    <row r="43" spans="1:3" ht="24" customHeight="1">
+      <c r="A43" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C43" s="10" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="B38" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
-    </row>
-    <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="A41" s="7" t="s">
+    <row r="44" spans="1:3" ht="24" customHeight="1">
+      <c r="B44" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="24" customHeight="1">
+      <c r="B45" s="11"/>
+    </row>
+    <row r="48" spans="1:3" ht="24" customHeight="1">
+      <c r="A48" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B48" s="12" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="9" t="s">
+    <row r="49" spans="1:31" ht="24" customHeight="1">
+      <c r="B49" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="C42" s="9" t="s">
+    </row>
+    <row r="51" spans="1:31" ht="24" customHeight="1">
+      <c r="A51" s="9" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="B43" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="24" customHeight="1">
-      <c r="B44" s="11"/>
-    </row>
-    <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="A46" s="7" t="s">
+      <c r="B51" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" ht="24" customHeight="1">
+      <c r="A52" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="C52" s="10" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="A47" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47" s="9" t="s">
+    <row r="53" spans="1:31" ht="24" customHeight="1">
+      <c r="B53" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" ht="24" customHeight="1">
+      <c r="B54" s="11"/>
+      <c r="AA54" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="AB54" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC54" s="6" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="24" customHeight="1">
-      <c r="B48" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:31" ht="24" customHeight="1">
-      <c r="B49" s="11"/>
-    </row>
-    <row r="52" spans="1:31" ht="24" customHeight="1">
-      <c r="A52" s="12" t="s">
+      <c r="AD54" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="AE54" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" ht="24" customHeight="1">
+      <c r="A56" s="9" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="53" spans="1:31" ht="24" customHeight="1">
-      <c r="B53" s="13" t="s">
+      <c r="B56" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" ht="24" customHeight="1">
+      <c r="A57" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="55" spans="1:31" ht="24" customHeight="1">
-      <c r="A55" s="7" t="s">
+      <c r="C57" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="1:31" ht="24" customHeight="1">
-      <c r="A56" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B56" s="9" t="s">
+    </row>
+    <row r="58" spans="1:31" ht="24" customHeight="1">
+      <c r="B58" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" ht="24" customHeight="1">
+      <c r="B59" s="11"/>
+      <c r="AA59" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB59" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC59" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD59" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE59" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" ht="24" customHeight="1">
+      <c r="A61" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="B61" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" ht="24" customHeight="1">
+      <c r="A62" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" s="10" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="57" spans="1:31" ht="24" customHeight="1">
-      <c r="B57" s="11"/>
-    </row>
-    <row r="59" spans="1:31" ht="24" customHeight="1">
-      <c r="A59" s="7" t="s">
+      <c r="C62" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="60" spans="1:31" ht="24" customHeight="1">
-      <c r="A60" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B60" s="9" t="s">
+    </row>
+    <row r="63" spans="1:31" ht="24" customHeight="1">
+      <c r="B63" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" ht="24" customHeight="1">
+      <c r="B64" s="11"/>
+    </row>
+    <row r="66" spans="1:3" ht="24" customHeight="1">
+      <c r="A66" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="B66" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="24" customHeight="1">
+      <c r="A67" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67" s="10" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="61" spans="1:31" ht="24" customHeight="1">
-      <c r="B61" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="1:31" ht="24" customHeight="1">
-      <c r="B62" s="11"/>
-      <c r="AA62" s="5" t="s">
+      <c r="C67" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="AB62" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="AC62" s="5" t="s">
+    </row>
+    <row r="68" spans="1:3" ht="24" customHeight="1">
+      <c r="B68" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="24" customHeight="1">
+      <c r="B69" s="11"/>
+    </row>
+    <row r="71" spans="1:3" ht="24" customHeight="1">
+      <c r="A71" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="AD62" s="5" t="s">
+      <c r="B71" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="24" customHeight="1">
+      <c r="A72" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="AE62" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:31" ht="24" customHeight="1">
-      <c r="A64" s="7" t="s">
+      <c r="C72" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="65" spans="1:31" ht="24" customHeight="1">
-      <c r="A65" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B65" s="9" t="s">
+    </row>
+    <row r="73" spans="1:3" ht="24" customHeight="1">
+      <c r="B73" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="24" customHeight="1">
+      <c r="B74" s="11"/>
+    </row>
+    <row r="76" spans="1:3" ht="24" customHeight="1">
+      <c r="A76" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="B76" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="24" customHeight="1">
+      <c r="A77" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77" s="10" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="66" spans="1:31" ht="24" customHeight="1">
-      <c r="B66" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="1:31" ht="24" customHeight="1">
-      <c r="B67" s="11"/>
-      <c r="AA67" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="AB67" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="AC67" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="AD67" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="AE67" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="69" spans="1:31" ht="24" customHeight="1">
-      <c r="A69" s="7" t="s">
+      <c r="C77" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="70" spans="1:31" ht="24" customHeight="1">
-      <c r="A70" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B70" s="9" t="s">
+    </row>
+    <row r="78" spans="1:3" ht="24" customHeight="1">
+      <c r="B78" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="24" customHeight="1">
+      <c r="B79" s="11"/>
+    </row>
+    <row r="82" spans="1:3" ht="24" customHeight="1">
+      <c r="A82" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="B82" s="12" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="71" spans="1:31" ht="24" customHeight="1">
-      <c r="B71" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="72" spans="1:31" ht="24" customHeight="1">
-      <c r="B72" s="11"/>
-    </row>
-    <row r="74" spans="1:31" ht="24" customHeight="1">
-      <c r="A74" s="7" t="s">
+    <row r="83" spans="1:3" ht="24" customHeight="1">
+      <c r="B83" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="24" customHeight="1">
+      <c r="A85" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="B74" s="7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="75" spans="1:31" ht="24" customHeight="1">
-      <c r="A75" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B75" s="9" t="s">
+      <c r="B85" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="C75" s="9" t="s">
+    </row>
+    <row r="86" spans="1:3" ht="24" customHeight="1">
+      <c r="A86" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B86" s="10" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="76" spans="1:31" ht="24" customHeight="1">
-      <c r="B76" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="77" spans="1:31" ht="24" customHeight="1">
-      <c r="B77" s="11"/>
-    </row>
-    <row r="79" spans="1:31" ht="24" customHeight="1">
-      <c r="A79" s="7" t="s">
+      <c r="C86" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="B79" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="80" spans="1:31" ht="24" customHeight="1">
-      <c r="A80" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B80" s="9" t="s">
+    </row>
+    <row r="87" spans="1:3" ht="24" customHeight="1">
+      <c r="B87" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="24" customHeight="1">
+      <c r="B88" s="11"/>
+    </row>
+    <row r="90" spans="1:3" ht="24" customHeight="1">
+      <c r="A90" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="B90" s="9" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="24" customHeight="1">
-      <c r="B81" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="B82" s="11"/>
-    </row>
-    <row r="84" spans="1:3" ht="24" customHeight="1">
-      <c r="A84" s="7" t="s">
+    <row r="91" spans="1:3" ht="24" customHeight="1">
+      <c r="A91" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B91" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="B84" s="7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="A85" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B85" s="9" t="s">
+      <c r="C91" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="C85" s="9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="B86" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="B87" s="11"/>
-    </row>
-    <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="B90" s="12" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="B91" s="13" t="s">
-        <v>311</v>
+    </row>
+    <row r="92" spans="1:3" ht="24" customHeight="1">
+      <c r="B92" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="A93" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="24" customHeight="1">
-      <c r="A94" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="B95" s="11"/>
-    </row>
-    <row r="97" spans="1:3" ht="24" customHeight="1">
-      <c r="A97" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="24" customHeight="1">
-      <c r="A98" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="B99" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="B100" s="11"/>
-    </row>
-    <row r="102" spans="1:3" ht="24" customHeight="1">
-      <c r="A102" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="B104" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="B105" s="11"/>
+      <c r="B93" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
-      <formula1>AA24:AF24</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29">
-      <formula1>AA29:AE29</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62">
-      <formula1>AA62:AE62</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67">
-      <formula1>AA67:AE67</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+      <formula1>AA20:AF20</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+      <formula1>AA25:AE25</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
+      <formula1>AA54:AE54</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59">
+      <formula1>AA59:AE59</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4457,323 +4309,323 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
+      <c r="A4" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>352</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:36" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>48</v>
+      <c r="A8" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>355</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>51</v>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:36" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:36" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>357</v>
+      <c r="A13" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>359</v>
+      <c r="A14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="24" customHeight="1">
       <c r="B16" s="11"/>
-      <c r="AA16" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="AB16" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="AC16" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="AD16" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="AE16" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="AF16" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="AG16" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="AH16" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="AI16" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="AJ16" s="5" t="s">
-        <v>61</v>
+      <c r="AA16" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB16" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC16" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="AD16" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="AE16" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="AF16" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="AG16" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="AH16" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="AI16" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AJ16" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>370</v>
+      <c r="A18" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>372</v>
+      <c r="A19" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
       <c r="B20" s="11"/>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
-      <c r="A22" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>374</v>
+      <c r="A22" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>376</v>
+      <c r="A23" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
       <c r="B24" s="11"/>
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
-      <c r="A26" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>378</v>
+      <c r="A26" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>380</v>
+      <c r="A27" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="11"/>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
-      <c r="A30" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>382</v>
+      <c r="A30" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
-      <c r="A31" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>384</v>
+      <c r="A31" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
       <c r="B32" s="11"/>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
-      <c r="A34" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>386</v>
+      <c r="A34" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
-      <c r="A35" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>388</v>
+      <c r="A35" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="B36" s="11"/>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="A38" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>390</v>
+      <c r="A38" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
-      <c r="A39" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>392</v>
+      <c r="A39" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="B40" s="11"/>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
-      <c r="A42" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>394</v>
+      <c r="A42" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="A43" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>396</v>
+      <c r="A43" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
       <c r="B44" s="11"/>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
-      <c r="A46" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>398</v>
+      <c r="A46" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
-      <c r="A47" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>400</v>
+      <c r="A47" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
       <c r="B48" s="11"/>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
-      <c r="A50" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>402</v>
+      <c r="A50" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="A51" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>404</v>
+      <c r="A51" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
@@ -4825,212 +4677,212 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
+      <c r="A4" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>410</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:29" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>48</v>
+      <c r="A8" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>413</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>51</v>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:29" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>415</v>
+      <c r="A13" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>417</v>
+      <c r="A14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="24" customHeight="1">
       <c r="B15" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="24" customHeight="1">
       <c r="B16" s="11"/>
-      <c r="AA16" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="AB16" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="AC16" s="5" t="s">
-        <v>361</v>
+      <c r="AA16" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="AB16" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="AC16" s="6" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>419</v>
+      <c r="A18" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>421</v>
+      <c r="A19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
       <c r="B20" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="B21" s="11"/>
-      <c r="AA21" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="AB21" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="AC21" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD21" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="AE21" s="5" t="s">
-        <v>426</v>
+      <c r="AA21" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>390</v>
+      <c r="A23" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>429</v>
+      <c r="A24" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11"/>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
-      <c r="A27" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>431</v>
+      <c r="A27" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>433</v>
+      <c r="A28" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
       <c r="B29" s="11"/>
     </row>
     <row r="31" spans="1:31" ht="24" customHeight="1">
-      <c r="A31" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>435</v>
+      <c r="A31" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="24" customHeight="1">
-      <c r="A32" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>437</v>
+      <c r="A32" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="24" customHeight="1">
@@ -5067,218 +4919,218 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="200.7109375" customWidth="1"/>
+    <col min="2" max="2" width="150.7109375" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>39</v>
+      <c r="A4" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>443</v>
+      <c r="A5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="B6" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>48</v>
+      <c r="A8" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>446</v>
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
-      <c r="B10" s="10" t="s">
-        <v>51</v>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>415</v>
+      <c r="A13" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>449</v>
+      <c r="A14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="10" t="s">
-        <v>46</v>
+      <c r="B15" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="24" customHeight="1">
       <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:36" ht="24" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>419</v>
+      <c r="A18" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:36" ht="24" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>452</v>
+      <c r="A19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="24" customHeight="1">
       <c r="B20" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:36" ht="24" customHeight="1">
       <c r="B21" s="11"/>
-      <c r="AA21" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="AB21" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="AC21" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="AD21" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="AE21" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="AF21" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="AG21" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="AH21" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="AI21" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="AJ21" s="5" t="s">
-        <v>460</v>
+      <c r="AA21" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC21" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AG21" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AH21" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="AI21" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="AJ21" s="6" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="24" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>390</v>
+      <c r="A23" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:36" ht="24" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>463</v>
+      <c r="A24" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="1:36" ht="24" customHeight="1">
       <c r="B25" s="11"/>
     </row>
     <row r="27" spans="1:36" ht="24" customHeight="1">
-      <c r="A27" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>394</v>
+      <c r="A27" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:36" ht="24" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>465</v>
+      <c r="A28" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:36" ht="24" customHeight="1">
       <c r="B29" s="11"/>
     </row>
     <row r="31" spans="1:36" ht="24" customHeight="1">
-      <c r="A31" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>435</v>
+      <c r="A31" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="32" spans="1:36" ht="24" customHeight="1">
-      <c r="A32" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>468</v>
+      <c r="A32" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="24" customHeight="1">

--- a/cmip6/models/ukesm1-0-ll/cmip6_mohc_ukesm1-0-ll_atmoschem.xlsx
+++ b/cmip6/models/ukesm1-0-ll/cmip6_mohc_ukesm1-0-ll_atmoschem.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="480">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -208,16 +208,16 @@
     <t>cmip6.atmoschem.key_properties.chemistry_scheme_scope</t>
   </si>
   <si>
-    <t>Troposphere</t>
-  </si>
-  <si>
-    <t>Stratosphere</t>
-  </si>
-  <si>
-    <t>Mesosphere</t>
-  </si>
-  <si>
-    <t>Whole atmosphere</t>
+    <t>troposphere</t>
+  </si>
+  <si>
+    <t>stratosphere</t>
+  </si>
+  <si>
+    <t>mesosphere</t>
+  </si>
+  <si>
+    <t>whole atmosphere</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -1087,7 +1087,7 @@
     <t>VOCs</t>
   </si>
   <si>
-    <t>Isoprene</t>
+    <t>isoprene</t>
   </si>
   <si>
     <t>H2O</t>
@@ -2474,7 +2474,7 @@
     <row r="16" spans="1:3" ht="178" customHeight="1">
       <c r="B16" s="11"/>
     </row>
-    <row r="18" spans="1:32" ht="24" customHeight="1">
+    <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
         <v>56</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="24" customHeight="1">
+    <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
         <v>58</v>
       </c>
@@ -2493,12 +2493,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="24" customHeight="1">
+    <row r="20" spans="1:31" ht="24" customHeight="1">
       <c r="B20" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="24" customHeight="1">
+    <row r="21" spans="1:31" ht="24" customHeight="1">
       <c r="B21" s="11"/>
       <c r="AA21" s="6" t="s">
         <v>61</v>
@@ -2510,16 +2510,13 @@
         <v>63</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF21" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="24" customHeight="1">
+    <row r="23" spans="1:31" ht="24" customHeight="1">
       <c r="A23" s="9" t="s">
         <v>66</v>
       </c>
@@ -2527,7 +2524,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="24" customHeight="1">
+    <row r="24" spans="1:31" ht="24" customHeight="1">
       <c r="A24" s="14" t="s">
         <v>43</v>
       </c>
@@ -2538,10 +2535,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="24" customHeight="1">
+    <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11"/>
     </row>
-    <row r="27" spans="1:32" ht="24" customHeight="1">
+    <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
         <v>70</v>
       </c>
@@ -2549,7 +2546,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="24" customHeight="1">
+    <row r="28" spans="1:31" ht="24" customHeight="1">
       <c r="A28" s="14" t="s">
         <v>58</v>
       </c>
@@ -2560,12 +2557,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="24" customHeight="1">
+    <row r="29" spans="1:31" ht="24" customHeight="1">
       <c r="B29" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="24" customHeight="1">
+    <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="B30" s="11"/>
       <c r="AA30" s="6" t="s">
         <v>74</v>
@@ -2574,7 +2571,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:32" ht="24" customHeight="1">
+    <row r="32" spans="1:31" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
         <v>75</v>
       </c>
@@ -3282,7 +3279,7 @@
   </sheetData>
   <dataValidations count="22">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
-      <formula1>AA21:AF21</formula1>
+      <formula1>AA21:AE21</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
       <formula1>AA30:AB30</formula1>
